--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>12.11</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>12.11</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>12.11</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>12.12</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>12.11</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>12.11</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>12.11</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4999999999999982</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>12.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.4999999999999982</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>12.09</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.4999999999999982</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>12.08</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>12.08</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K23" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L23" t="n">
         <v>12.07</v>
@@ -1466,7 +1488,7 @@
         <v>0.6999999999999975</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L24" t="n">
         <v>12.06</v>
@@ -1515,7 +1537,7 @@
         <v>0.7999999999999972</v>
       </c>
       <c r="K25" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L25" t="n">
         <v>12.03</v>
@@ -1564,7 +1586,7 @@
         <v>0.7999999999999972</v>
       </c>
       <c r="K26" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L26" t="n">
         <v>12.01</v>
@@ -1613,7 +1635,7 @@
         <v>0.7999999999999972</v>
       </c>
       <c r="K27" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>11.99</v>
@@ -1760,7 +1782,7 @@
         <v>0.8999999999999968</v>
       </c>
       <c r="K30" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L30" t="n">
         <v>11.94</v>
@@ -1809,7 +1831,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K31" t="n">
-        <v>-50.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>11.91</v>
@@ -1860,7 +1882,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-19.99999999999993</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L32" t="n">
         <v>11.89</v>
@@ -1911,7 +1933,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-27.27272727272718</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L33" t="n">
         <v>11.87</v>
@@ -1962,7 +1984,7 @@
         <v>1.599999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L34" t="n">
         <v>11.88</v>
@@ -2013,7 +2035,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>-19.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>11.88</v>
@@ -2064,7 +2086,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K36" t="n">
-        <v>-14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>11.88</v>
@@ -2115,7 +2137,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>11.88</v>
@@ -2166,7 +2188,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>-14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>11.88</v>
@@ -2217,7 +2239,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.692307692307672</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L39" t="n">
         <v>11.88</v>
@@ -2268,7 +2290,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>-7.692307692307672</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L40" t="n">
         <v>11.89</v>
@@ -2319,7 +2341,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>11.91</v>
@@ -2370,7 +2392,7 @@
         <v>1.899999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>-23.07692307692301</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>11.9</v>
@@ -2421,7 +2443,7 @@
         <v>1.899999999999997</v>
       </c>
       <c r="K43" t="n">
-        <v>-16.66666666666662</v>
+        <v>-100</v>
       </c>
       <c r="L43" t="n">
         <v>11.9</v>
@@ -2472,7 +2494,7 @@
         <v>1.999999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>-23.07692307692312</v>
+        <v>-100</v>
       </c>
       <c r="L44" t="n">
         <v>11.86</v>
@@ -2574,7 +2596,7 @@
         <v>2.4</v>
       </c>
       <c r="K46" t="n">
-        <v>-12.50000000000004</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>11.84</v>
@@ -2625,7 +2647,7 @@
         <v>2.4</v>
       </c>
       <c r="K47" t="n">
-        <v>-12.50000000000004</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>11.82</v>
@@ -2727,7 +2749,7 @@
         <v>2.800000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.00000000000003</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>11.8</v>
@@ -2778,7 +2800,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-9.090909090909003</v>
       </c>
       <c r="L50" t="n">
         <v>11.79</v>
@@ -2829,7 +2851,7 @@
         <v>2.900000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>11.78</v>
@@ -2880,7 +2902,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.11111111111113</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L52" t="n">
         <v>11.77</v>
@@ -2931,7 +2953,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.882352941176532</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>11.76</v>
@@ -2982,7 +3004,7 @@
         <v>3.200000000000006</v>
       </c>
       <c r="K54" t="n">
-        <v>-12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>11.78</v>
@@ -3033,7 +3055,7 @@
         <v>3.300000000000006</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.666666666666604</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L55" t="n">
         <v>11.77</v>
@@ -3084,7 +3106,7 @@
         <v>3.400000000000007</v>
       </c>
       <c r="K56" t="n">
-        <v>-12.49999999999999</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>11.77</v>
@@ -3186,7 +3208,7 @@
         <v>3.700000000000008</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.263157894736794</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L58" t="n">
         <v>11.78</v>
@@ -3237,7 +3259,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L59" t="n">
         <v>11.8</v>
@@ -3288,7 +3310,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L60" t="n">
         <v>11.81</v>
@@ -3339,7 +3361,7 @@
         <v>3.900000000000007</v>
       </c>
       <c r="K61" t="n">
-        <v>-4.761904761904721</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L61" t="n">
         <v>11.81</v>
@@ -3390,7 +3412,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K62" t="n">
-        <v>4.761904761904721</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L62" t="n">
         <v>11.82999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>4.100000000000007</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L63" t="n">
         <v>11.83999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K64" t="n">
-        <v>13.04347826086955</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L64" t="n">
         <v>11.84999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>4.500000000000005</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.347826086956495</v>
+        <v>9.090909090909239</v>
       </c>
       <c r="L65" t="n">
         <v>11.84999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K66" t="n">
-        <v>9.09090909090912</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>11.86999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K67" t="n">
-        <v>13.04347826086957</v>
+        <v>20</v>
       </c>
       <c r="L67" t="n">
         <v>11.87999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K68" t="n">
-        <v>4.761904761904738</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L68" t="n">
         <v>11.89999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>4.900000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>4.761904761904826</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L69" t="n">
         <v>11.88999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>4.900000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L71" t="n">
         <v>11.87999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>5.100000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>14.28571428571433</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>11.89</v>
@@ -3951,7 +3973,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>9.09090909090915</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>11.9</v>
@@ -4002,7 +4024,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>11.89</v>
@@ -4053,7 +4075,7 @@
         <v>5.300000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>9.999999999999982</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>11.90999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>5.400000000000002</v>
       </c>
       <c r="K76" t="n">
-        <v>10.00000000000008</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L76" t="n">
         <v>11.90999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>5.400000000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>11.9</v>
@@ -4257,7 +4279,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L79" t="n">
         <v>11.89</v>
@@ -4308,7 +4330,7 @@
         <v>5.800000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>11.92</v>
@@ -4359,7 +4381,7 @@
         <v>5.9</v>
       </c>
       <c r="K81" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>11.94</v>
@@ -4410,7 +4432,7 @@
         <v>5.9</v>
       </c>
       <c r="K82" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L82" t="n">
         <v>11.94</v>
@@ -4461,7 +4483,7 @@
         <v>6</v>
       </c>
       <c r="K83" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L83" t="n">
         <v>11.96</v>
@@ -4512,7 +4534,7 @@
         <v>6.1</v>
       </c>
       <c r="K84" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L84" t="n">
         <v>11.98999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>6.1</v>
       </c>
       <c r="K85" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L85" t="n">
         <v>12.00999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L86" t="n">
         <v>12.02999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="L87" t="n">
         <v>12.05999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L88" t="n">
         <v>12.09999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>12.12999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>12.13999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L91" t="n">
         <v>12.15999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>12.17999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>12.18999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>12.18999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>12.18999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>12.18999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>6.699999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>38.46153846153855</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L97" t="n">
         <v>12.20999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="K98" t="n">
-        <v>19.99999999999995</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L98" t="n">
         <v>12.19999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="K99" t="n">
-        <v>14.28571428571425</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L99" t="n">
         <v>12.18999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>7.200000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>14.28571428571436</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L100" t="n">
         <v>12.19999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>6.666666666666635</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L101" t="n">
         <v>12.18999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>6.666666666666635</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L102" t="n">
         <v>12.17999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>7.500000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>12.17999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>7.600000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.666666666666635</v>
+        <v>-7.69230769230765</v>
       </c>
       <c r="L104" t="n">
         <v>12.16999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>7.600000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>12.15999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>7.700000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-6.666666666666635</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L106" t="n">
         <v>12.14999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>12.11999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>7.9</v>
       </c>
       <c r="K108" t="n">
-        <v>-12.49999999999994</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L108" t="n">
         <v>12.10999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>8</v>
       </c>
       <c r="K109" t="n">
-        <v>-5.882352941176446</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L109" t="n">
         <v>12.10999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>8.1</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>12.09999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>8.1</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L111" t="n">
         <v>12.10999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.263157894736822</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>12.10999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>8.4</v>
       </c>
       <c r="K114" t="n">
-        <v>4.761904761904826</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L114" t="n">
         <v>12.12999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>8.500000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L115" t="n">
         <v>12.13999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>8.700000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-10.00000000000004</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L117" t="n">
         <v>12.15999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>8.700000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>5.882352941176446</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L118" t="n">
         <v>12.17999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>8.800000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>11.11111111111116</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L119" t="n">
         <v>12.19999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>8.800000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L120" t="n">
         <v>12.20999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>8.800000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>14.28571428571436</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L121" t="n">
         <v>12.21999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>20.00000000000005</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L122" t="n">
         <v>12.23999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>14.28571428571436</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L123" t="n">
         <v>12.26999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>28.57142857142859</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L124" t="n">
         <v>12.28999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>20.00000000000005</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L125" t="n">
         <v>12.30999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>28.57142857142859</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L126" t="n">
         <v>12.33999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>9.200000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>14.28571428571436</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L127" t="n">
         <v>12.34999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>28.57142857142859</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>12.36999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>9.4</v>
       </c>
       <c r="K129" t="n">
-        <v>14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>12.36999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>9.6</v>
       </c>
       <c r="K130" t="n">
-        <v>20.00000000000005</v>
+        <v>25</v>
       </c>
       <c r="L130" t="n">
         <v>12.38999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>9.799999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>5.882352941176556</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L131" t="n">
         <v>12.38999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>9.799999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>5.882352941176556</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L132" t="n">
         <v>12.37999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>9.799999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>12.50000000000007</v>
+        <v>-25</v>
       </c>
       <c r="L133" t="n">
         <v>12.36999999999999</v>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>11.84499999999996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +495,16 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +536,16 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +577,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +610,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.09999999999999964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +647,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +682,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +717,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,18 +752,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +787,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,22 +822,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,22 +857,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,22 +892,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +925,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,22 +962,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +997,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1032,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1065,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1100,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1135,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>12.095</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,24 +1172,10 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12.08</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>12.095</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1205,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6999999999999975</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L23" t="n">
-        <v>12.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1240,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6999999999999975</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L24" t="n">
-        <v>12.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>12.085</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1275,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L25" t="n">
-        <v>12.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>12.075</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1310,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L26" t="n">
-        <v>12.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1345,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L27" t="n">
-        <v>11.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1380,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>11.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1415,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>11.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1450,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8999999999999968</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L30" t="n">
-        <v>11.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>12.015</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1485,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>11.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>11.995</v>
-      </c>
-      <c r="N31" t="n">
-        <v>12.03333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1520,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L32" t="n">
-        <v>11.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>11.985</v>
-      </c>
-      <c r="N32" t="n">
-        <v>12.02666666666666</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1552,19 @@
         <v>11.95333333333331</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.299999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="K33" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L33" t="n">
-        <v>11.87</v>
-      </c>
+        <v>11.8</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="N33" t="n">
-        <v>12.01666666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,26 +1596,16 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.599999999999998</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L34" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="N34" t="n">
-        <v>12.01666666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1632,23 @@
         <v>11.96166666666664</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.799999999999997</v>
+        <v>11.9</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>11.88</v>
+        <v>11.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>11.955</v>
-      </c>
-      <c r="N35" t="n">
-        <v>12.00999999999999</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1678,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>11.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>11.945</v>
-      </c>
-      <c r="N36" t="n">
-        <v>11.99999999999999</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1713,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>11.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>11.935</v>
-      </c>
-      <c r="N37" t="n">
-        <v>11.99333333333332</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1748,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>11.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>11.925</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11.98666666666665</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1783,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L39" t="n">
-        <v>11.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>11.92000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>11.97999999999998</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1818,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K40" t="n">
-        <v>25.00000000000017</v>
-      </c>
-      <c r="L40" t="n">
-        <v>11.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>11.915</v>
-      </c>
-      <c r="N40" t="n">
-        <v>11.97333333333332</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1853,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>11.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>11.91000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>11.96666666666665</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1888,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.899999999999997</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>11.89500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>11.95666666666665</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1923,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.899999999999997</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L43" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>11.88500000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>11.94666666666665</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1958,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.999999999999998</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>11.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>11.87000000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11.93333333333331</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +1990,19 @@
         <v>11.97333333333331</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>11.86</v>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>11.87000000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>11.92333333333331</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2029,23 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="K46" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>11.84</v>
+        <v>11.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="N46" t="n">
-        <v>11.90999999999998</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2072,23 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="K47" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="N47" t="n">
-        <v>11.89666666666664</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2115,19 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.600000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>11.82</v>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="N48" t="n">
-        <v>11.88999999999998</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2154,23 @@
         <v>11.96666666666664</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.800000000000002</v>
+        <v>11.7</v>
       </c>
       <c r="K49" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L49" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="N49" t="n">
-        <v>11.87999999999997</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,31 +2197,23 @@
         <v>11.96499999999998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.900000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.090909090909003</v>
-      </c>
-      <c r="L50" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="N50" t="n">
-        <v>11.87333333333331</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2240,19 @@
         <v>11.96333333333331</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.900000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>11.78</v>
-      </c>
+        <v>11.8</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>11.845</v>
-      </c>
-      <c r="N51" t="n">
-        <v>11.86666666666664</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2279,23 @@
         <v>11.95999999999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.000000000000005</v>
+        <v>11.7</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.09090909090915</v>
-      </c>
-      <c r="L52" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>11.835</v>
-      </c>
-      <c r="N52" t="n">
-        <v>11.85333333333331</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2322,23 @@
         <v>11.95499999999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>3.000000000000005</v>
+        <v>11.7</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>11.76</v>
+        <v>11.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="N53" t="n">
-        <v>11.84333333333331</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,31 +2365,19 @@
         <v>11.95499999999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.200000000000006</v>
+        <v>11.9</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>11.78</v>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="N54" t="n">
-        <v>11.83999999999997</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,31 +2404,23 @@
         <v>11.95166666666664</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.300000000000006</v>
+        <v>11.8</v>
       </c>
       <c r="K55" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L55" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>11.815</v>
-      </c>
-      <c r="N55" t="n">
-        <v>11.83666666666664</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3097,31 +2447,23 @@
         <v>11.94666666666665</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.400000000000007</v>
+        <v>11.7</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>11.805</v>
-      </c>
-      <c r="N56" t="n">
-        <v>11.82999999999998</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,31 +2490,19 @@
         <v>11.94499999999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.600000000000009</v>
+        <v>11.9</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>11.79</v>
-      </c>
+        <v>11.9</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>11.805</v>
-      </c>
-      <c r="N57" t="n">
-        <v>11.82999999999998</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2529,23 @@
         <v>11.94166666666664</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.700000000000008</v>
+        <v>11.8</v>
       </c>
       <c r="K58" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L58" t="n">
-        <v>11.78</v>
+        <v>11.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N58" t="n">
-        <v>11.82666666666664</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2572,23 @@
         <v>11.94166666666664</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3.800000000000008</v>
+        <v>11.8</v>
       </c>
       <c r="K59" t="n">
-        <v>11.11111111111102</v>
-      </c>
-      <c r="L59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N59" t="n">
-        <v>11.82666666666664</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,31 +2615,23 @@
         <v>11.94166666666664</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3.800000000000008</v>
+        <v>11.9</v>
       </c>
       <c r="K60" t="n">
-        <v>11.11111111111102</v>
-      </c>
-      <c r="L60" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N60" t="n">
-        <v>11.82999999999998</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2658,23 @@
         <v>11.93333333333331</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.900000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="K61" t="n">
-        <v>11.11111111111124</v>
-      </c>
-      <c r="L61" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>11.795</v>
-      </c>
-      <c r="N61" t="n">
-        <v>11.83333333333331</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2701,23 @@
         <v>11.92999999999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="K62" t="n">
-        <v>20.00000000000007</v>
-      </c>
-      <c r="L62" t="n">
-        <v>11.82999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N62" t="n">
-        <v>11.83333333333331</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2744,23 @@
         <v>11.92499999999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>4.100000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="K63" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L63" t="n">
-        <v>11.83999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N63" t="n">
-        <v>11.83333333333331</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +2787,23 @@
         <v>11.92333333333331</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4.300000000000006</v>
+        <v>12</v>
       </c>
       <c r="K64" t="n">
-        <v>19.99999999999993</v>
-      </c>
-      <c r="L64" t="n">
-        <v>11.84999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>11.815</v>
-      </c>
-      <c r="N64" t="n">
-        <v>11.82999999999998</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2830,23 @@
         <v>11.91833333333331</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.500000000000005</v>
+        <v>11.8</v>
       </c>
       <c r="K65" t="n">
-        <v>9.090909090909239</v>
-      </c>
-      <c r="L65" t="n">
-        <v>11.84999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="N65" t="n">
-        <v>11.82666666666664</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2873,23 @@
         <v>11.91333333333331</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.600000000000005</v>
+        <v>11.9</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>11.86999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="N66" t="n">
-        <v>11.82666666666664</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2916,23 @@
         <v>11.91166666666664</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.700000000000005</v>
+        <v>12</v>
       </c>
       <c r="K67" t="n">
-        <v>20</v>
-      </c>
-      <c r="L67" t="n">
-        <v>11.87999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>11.835</v>
-      </c>
-      <c r="N67" t="n">
-        <v>11.82999999999998</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2959,23 @@
         <v>11.90999999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4.700000000000005</v>
+        <v>11.8</v>
       </c>
       <c r="K68" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L68" t="n">
-        <v>11.89999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>11.84000000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>11.83333333333331</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3005,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.2999999999999989</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.900000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L69" t="n">
-        <v>11.88999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>11.84500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>11.82999999999998</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +3043,23 @@
         <v>11.89999999999997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>4.900000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>11.87999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>11.84500000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>11.82666666666665</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +3086,23 @@
         <v>11.89499999999997</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>4.900000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L71" t="n">
-        <v>11.87999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>11.84500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>11.82333333333331</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +3129,23 @@
         <v>11.8933333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>5.100000000000003</v>
+        <v>12</v>
       </c>
       <c r="K72" t="n">
-        <v>20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>11.86000000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>11.82999999999998</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3172,23 @@
         <v>11.88999999999997</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>5.200000000000003</v>
+        <v>11.9</v>
       </c>
       <c r="K73" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11.9</v>
+        <v>11.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>11.87000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>11.83333333333331</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3215,23 @@
         <v>11.88666666666663</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>5.200000000000003</v>
+        <v>11.9</v>
       </c>
       <c r="K74" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L74" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>11.87000000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>11.83999999999998</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3258,23 @@
         <v>11.8833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>5.300000000000002</v>
+        <v>12</v>
       </c>
       <c r="K75" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L75" t="n">
-        <v>11.90999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>11.88000000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>11.84333333333331</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3301,23 @@
         <v>11.87999999999997</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>5.400000000000002</v>
+        <v>11.9</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L76" t="n">
-        <v>11.90999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>11.89000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>11.84999999999998</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3347,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L77" t="n">
-        <v>11.9</v>
+        <v>11.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>11.89000000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>11.85666666666665</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3385,23 @@
         <v>11.87166666666663</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5.500000000000002</v>
+        <v>11.8</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>11.89000000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>11.85333333333331</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3428,23 @@
         <v>11.86999999999996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>5.600000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="K79" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L79" t="n">
-        <v>11.89</v>
+        <v>11.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>11.89000000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>11.85999999999998</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3471,23 @@
         <v>11.87166666666663</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>5.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="K80" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L80" t="n">
-        <v>11.92</v>
+        <v>11.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>11.90000000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>11.86999999999998</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3514,23 @@
         <v>11.87166666666663</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>5.9</v>
+        <v>12</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>11.94</v>
+        <v>11.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>11.91000000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>11.87666666666665</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3560,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L82" t="n">
-        <v>11.94</v>
+        <v>11.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>11.91500000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>11.88666666666665</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,26 +3603,16 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>6</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>25</v>
-      </c>
-      <c r="L83" t="n">
-        <v>11.96</v>
+        <v>11.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>11.93000000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>11.89999999999998</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3642,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>25</v>
-      </c>
-      <c r="L84" t="n">
-        <v>11.98999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="N84" t="n">
-        <v>11.90999999999998</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3683,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J85" t="n">
-        <v>6.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12.00999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="N85" t="n">
-        <v>11.92333333333331</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,29 +3724,19 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6.199999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>25</v>
-      </c>
-      <c r="L86" t="n">
-        <v>12.02999999999999</v>
+        <v>11.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="N86" t="n">
-        <v>11.93666666666665</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
-        <v>1</v>
+        <v>1.011806722689076</v>
       </c>
     </row>
     <row r="87">
@@ -4681,28 +3765,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>50</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.05999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="N87" t="n">
-        <v>11.94666666666665</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3800,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K88" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="N88" t="n">
-        <v>11.95999999999998</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3835,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K89" t="n">
-        <v>20</v>
-      </c>
-      <c r="L89" t="n">
-        <v>12.12999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="N89" t="n">
-        <v>11.96999999999998</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3870,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>50</v>
-      </c>
-      <c r="L90" t="n">
-        <v>12.13999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="N90" t="n">
-        <v>11.97999999999998</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3905,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>50</v>
-      </c>
-      <c r="L91" t="n">
-        <v>12.15999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>11.99333333333331</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3940,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>12.17999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="N92" t="n">
-        <v>12.00333333333331</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3975,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>12.075</v>
-      </c>
-      <c r="N93" t="n">
-        <v>12.01666666666665</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4010,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="N94" t="n">
-        <v>12.02333333333331</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4045,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.299999999999999</v>
-      </c>
-      <c r="K95" t="n">
-        <v>100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="N95" t="n">
-        <v>12.03666666666665</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,26 +4082,10 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>6.399999999999999</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>12.18999999999999</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="N96" t="n">
-        <v>12.04333333333332</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4115,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6.699999999999999</v>
-      </c>
-      <c r="K97" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L97" t="n">
-        <v>12.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>12.13499999999999</v>
-      </c>
-      <c r="N97" t="n">
-        <v>12.05666666666665</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,26 +4152,10 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>7</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L98" t="n">
-        <v>12.19999999999999</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N98" t="n">
-        <v>12.05999999999998</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,26 +4187,10 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>7</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L99" t="n">
-        <v>12.18999999999999</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="N99" t="n">
-        <v>12.06999999999998</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4220,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J100" t="n">
-        <v>7.200000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.11111111111124</v>
-      </c>
-      <c r="L100" t="n">
-        <v>12.19999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>12.16999999999999</v>
-      </c>
-      <c r="N100" t="n">
-        <v>12.08666666666665</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5397,26 +4257,10 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>7.400000000000002</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L101" t="n">
-        <v>12.18999999999999</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>12.17499999999999</v>
-      </c>
-      <c r="N101" t="n">
-        <v>12.09666666666665</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,26 +4292,10 @@
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>7.400000000000002</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L102" t="n">
-        <v>12.17999999999999</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>12.17999999999999</v>
-      </c>
-      <c r="N102" t="n">
-        <v>12.09999999999998</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4325,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J103" t="n">
-        <v>7.500000000000002</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>12.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>12.18499999999999</v>
-      </c>
-      <c r="N103" t="n">
-        <v>12.10999999999998</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,26 +4362,10 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>7.600000000000001</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-7.69230769230765</v>
-      </c>
-      <c r="L104" t="n">
-        <v>12.16999999999999</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>12.17999999999999</v>
-      </c>
-      <c r="N104" t="n">
-        <v>12.11666666666665</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5601,26 +4397,10 @@
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>7.600000000000001</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>12.15999999999999</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>12.17499999999999</v>
-      </c>
-      <c r="N105" t="n">
-        <v>12.11999999999999</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4430,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J106" t="n">
-        <v>7.700000000000001</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-39.99999999999996</v>
-      </c>
-      <c r="L106" t="n">
-        <v>12.14999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>12.16999999999999</v>
-      </c>
-      <c r="N106" t="n">
-        <v>12.12333333333332</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5703,26 +4467,10 @@
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>7.800000000000001</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>12.11999999999999</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>12.165</v>
-      </c>
-      <c r="N107" t="n">
-        <v>12.12999999999999</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4500,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J108" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L108" t="n">
-        <v>12.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>12.155</v>
-      </c>
-      <c r="N108" t="n">
-        <v>12.13666666666665</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5805,26 +4537,10 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>8</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-25.00000000000017</v>
-      </c>
-      <c r="L109" t="n">
-        <v>12.10999999999999</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N109" t="n">
-        <v>12.14333333333332</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4570,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J110" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N110" t="n">
-        <v>12.14666666666665</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4605,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J111" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K111" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L111" t="n">
-        <v>12.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N111" t="n">
-        <v>12.15333333333332</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,1099 +4640,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J112" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12.11999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N112" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>10</v>
-      </c>
-      <c r="G113" t="n">
-        <v>12.02999999999998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>12.10999999999999</v>
-      </c>
-      <c r="M113" t="n">
-        <v>12.145</v>
-      </c>
-      <c r="N113" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>11</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.03666666666665</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J114" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>25.00000000000017</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12.12999999999999</v>
-      </c>
-      <c r="M114" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N114" t="n">
-        <v>12.16333333333332</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>29440.4918</v>
-      </c>
-      <c r="G115" t="n">
-        <v>12.04333333333332</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J115" t="n">
-        <v>8.500000000000002</v>
-      </c>
-      <c r="K115" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L115" t="n">
-        <v>12.13999999999999</v>
-      </c>
-      <c r="M115" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N115" t="n">
-        <v>12.16333333333332</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>12.04999999999998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>8.600000000000001</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12.14999999999999</v>
-      </c>
-      <c r="M116" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N116" t="n">
-        <v>12.16333333333332</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>11</v>
-      </c>
-      <c r="G117" t="n">
-        <v>12.05499999999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J117" t="n">
-        <v>8.700000000000001</v>
-      </c>
-      <c r="K117" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L117" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="M117" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="N117" t="n">
-        <v>12.16333333333332</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>49175.4019</v>
-      </c>
-      <c r="G118" t="n">
-        <v>12.06166666666665</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J118" t="n">
-        <v>8.700000000000001</v>
-      </c>
-      <c r="K118" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L118" t="n">
-        <v>12.17999999999999</v>
-      </c>
-      <c r="M118" t="n">
-        <v>12.145</v>
-      </c>
-      <c r="N118" t="n">
-        <v>12.16333333333332</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3889.2804</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12.06833333333332</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J119" t="n">
-        <v>8.800000000000002</v>
-      </c>
-      <c r="K119" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L119" t="n">
-        <v>12.19999999999999</v>
-      </c>
-      <c r="M119" t="n">
-        <v>12.155</v>
-      </c>
-      <c r="N119" t="n">
-        <v>12.16666666666666</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F120" t="n">
-        <v>23626.275</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J120" t="n">
-        <v>8.800000000000002</v>
-      </c>
-      <c r="K120" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L120" t="n">
-        <v>12.20999999999999</v>
-      </c>
-      <c r="M120" t="n">
-        <v>12.155</v>
-      </c>
-      <c r="N120" t="n">
-        <v>12.16999999999999</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F121" t="n">
-        <v>121224.7617</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12.08333333333332</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J121" t="n">
-        <v>8.800000000000002</v>
-      </c>
-      <c r="K121" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L121" t="n">
-        <v>12.21999999999999</v>
-      </c>
-      <c r="M121" t="n">
-        <v>12.165</v>
-      </c>
-      <c r="N121" t="n">
-        <v>12.17333333333332</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F122" t="n">
-        <v>8064.516</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12.09166666666665</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J122" t="n">
-        <v>8.900000000000002</v>
-      </c>
-      <c r="K122" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L122" t="n">
-        <v>12.23999999999999</v>
-      </c>
-      <c r="M122" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="N122" t="n">
-        <v>12.17999999999999</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>102419.3549</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.10166666666665</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J123" t="n">
-        <v>8.900000000000002</v>
-      </c>
-      <c r="K123" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L123" t="n">
-        <v>12.26999999999999</v>
-      </c>
-      <c r="M123" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="N123" t="n">
-        <v>12.18666666666666</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12.10999999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J124" t="n">
-        <v>9.000000000000002</v>
-      </c>
-      <c r="K124" t="n">
-        <v>60.00000000000014</v>
-      </c>
-      <c r="L124" t="n">
-        <v>12.28999999999999</v>
-      </c>
-      <c r="M124" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="N124" t="n">
-        <v>12.19666666666666</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>6290.3225</v>
-      </c>
-      <c r="G125" t="n">
-        <v>12.11999999999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9.100000000000001</v>
-      </c>
-      <c r="K125" t="n">
-        <v>60.00000000000014</v>
-      </c>
-      <c r="L125" t="n">
-        <v>12.30999999999999</v>
-      </c>
-      <c r="M125" t="n">
-        <v>12.225</v>
-      </c>
-      <c r="N125" t="n">
-        <v>12.20333333333332</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>14395.1806</v>
-      </c>
-      <c r="G126" t="n">
-        <v>12.12833333333332</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J126" t="n">
-        <v>9.100000000000001</v>
-      </c>
-      <c r="K126" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L126" t="n">
-        <v>12.33999999999999</v>
-      </c>
-      <c r="M126" t="n">
-        <v>12.245</v>
-      </c>
-      <c r="N126" t="n">
-        <v>12.21333333333332</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F127" t="n">
-        <v>10</v>
-      </c>
-      <c r="G127" t="n">
-        <v>12.13333333333332</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J127" t="n">
-        <v>9.200000000000001</v>
-      </c>
-      <c r="K127" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L127" t="n">
-        <v>12.34999999999999</v>
-      </c>
-      <c r="M127" t="n">
-        <v>12.255</v>
-      </c>
-      <c r="N127" t="n">
-        <v>12.20999999999999</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>16129.0321</v>
-      </c>
-      <c r="G128" t="n">
-        <v>12.13999999999998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J128" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="K128" t="n">
-        <v>20</v>
-      </c>
-      <c r="L128" t="n">
-        <v>12.36999999999999</v>
-      </c>
-      <c r="M128" t="n">
-        <v>12.275</v>
-      </c>
-      <c r="N128" t="n">
-        <v>12.21999999999999</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10</v>
-      </c>
-      <c r="G129" t="n">
-        <v>12.14833333333332</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>12.36999999999999</v>
-      </c>
-      <c r="M129" t="n">
-        <v>12.285</v>
-      </c>
-      <c r="N129" t="n">
-        <v>12.22666666666665</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>100</v>
-      </c>
-      <c r="G130" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K130" t="n">
-        <v>25</v>
-      </c>
-      <c r="L130" t="n">
-        <v>12.38999999999999</v>
-      </c>
-      <c r="M130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="N130" t="n">
-        <v>12.23333333333332</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>12.16833333333332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J131" t="n">
-        <v>9.799999999999999</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L131" t="n">
-        <v>12.38999999999999</v>
-      </c>
-      <c r="M131" t="n">
-        <v>12.305</v>
-      </c>
-      <c r="N131" t="n">
-        <v>12.23999999999999</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>316301.1625</v>
-      </c>
-      <c r="G132" t="n">
-        <v>12.17333333333332</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J132" t="n">
-        <v>9.799999999999999</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L132" t="n">
-        <v>12.37999999999999</v>
-      </c>
-      <c r="M132" t="n">
-        <v>12.31000000000001</v>
-      </c>
-      <c r="N132" t="n">
-        <v>12.24666666666665</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F133" t="n">
-        <v>800.0232</v>
-      </c>
-      <c r="G133" t="n">
-        <v>12.17999999999998</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="J133" t="n">
-        <v>9.799999999999999</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L133" t="n">
-        <v>12.36999999999999</v>
-      </c>
-      <c r="M133" t="n">
-        <v>12.32000000000001</v>
-      </c>
-      <c r="N133" t="n">
-        <v>12.24999999999999</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -451,17 +451,13 @@
         <v>11.84499999999996</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -493,17 +489,11 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -534,17 +524,11 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -1552,17 +1536,13 @@
         <v>11.95333333333331</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
@@ -1597,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1632,22 +1606,14 @@
         <v>11.96166666666664</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K35" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1990,17 +1956,13 @@
         <v>11.97333333333331</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
@@ -2029,22 +1991,14 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2072,22 +2026,14 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2115,17 +2061,13 @@
         <v>11.96999999999998</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -2160,16 +2102,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="K49" t="n">
         <v>11.9</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2197,14 +2135,12 @@
         <v>11.96499999999998</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>11.9</v>
       </c>
@@ -2240,18 +2176,20 @@
         <v>11.96333333333331</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2279,22 +2217,14 @@
         <v>11.95999999999998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2322,22 +2252,14 @@
         <v>11.95499999999998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K53" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2365,17 +2287,13 @@
         <v>11.95499999999998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K54" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2404,22 +2322,14 @@
         <v>11.95166666666664</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2447,22 +2357,14 @@
         <v>11.94666666666665</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2490,17 +2392,13 @@
         <v>11.94499999999998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K57" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2529,22 +2427,14 @@
         <v>11.94166666666664</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2572,22 +2462,14 @@
         <v>11.94166666666664</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2615,22 +2497,14 @@
         <v>11.94166666666664</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2658,22 +2532,14 @@
         <v>11.93333333333331</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2701,22 +2567,14 @@
         <v>11.92999999999998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2744,22 +2602,14 @@
         <v>11.92499999999998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2787,22 +2637,14 @@
         <v>11.92333333333331</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>12</v>
-      </c>
-      <c r="K64" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +2672,14 @@
         <v>11.91833333333331</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2873,22 +2707,14 @@
         <v>11.91333333333331</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2916,22 +2742,14 @@
         <v>11.91166666666664</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>12</v>
-      </c>
-      <c r="K67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2959,22 +2777,14 @@
         <v>11.90999999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3008,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3043,22 +2847,14 @@
         <v>11.89999999999997</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3086,22 +2882,14 @@
         <v>11.89499999999997</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3129,22 +2917,14 @@
         <v>11.8933333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>12</v>
-      </c>
-      <c r="K72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3172,22 +2952,14 @@
         <v>11.88999999999997</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3215,22 +2987,14 @@
         <v>11.88666666666663</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3258,22 +3022,14 @@
         <v>11.8833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>12</v>
-      </c>
-      <c r="K75" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3301,22 +3057,14 @@
         <v>11.87999999999997</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3350,14 +3098,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3385,22 +3127,14 @@
         <v>11.87166666666663</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3162,14 @@
         <v>11.86999999999996</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3471,22 +3197,14 @@
         <v>11.87166666666663</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>12</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3232,14 @@
         <v>11.87166666666663</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>12</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3563,14 +3273,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3604,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3645,14 +3343,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3686,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3724,19 +3410,13 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>1.011806722689076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3765,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3800,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3835,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3870,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3905,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3940,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3975,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4010,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E2" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>8800</v>
+        <v>538672.1010365854</v>
       </c>
       <c r="G2" t="n">
-        <v>11.84499999999996</v>
+        <v>11.83499999999996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>8800</v>
       </c>
       <c r="G3" t="n">
-        <v>11.85499999999996</v>
+        <v>11.84499999999996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -515,10 +515,10 @@
         <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>3887.272727272727</v>
+        <v>8800</v>
       </c>
       <c r="G4" t="n">
-        <v>11.86333333333329</v>
+        <v>11.85499999999996</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>40413.41507272727</v>
+        <v>3887.272727272727</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87166666666663</v>
+        <v>11.86333333333329</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>40413.41507272727</v>
       </c>
       <c r="G6" t="n">
-        <v>11.88166666666663</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F7" t="n">
-        <v>24081.6265</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>11.88666666666663</v>
+        <v>11.88166666666663</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>12.1</v>
       </c>
       <c r="F8" t="n">
-        <v>18060</v>
+        <v>24081.6265</v>
       </c>
       <c r="G8" t="n">
-        <v>11.89166666666663</v>
+        <v>11.88666666666663</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>18060</v>
       </c>
       <c r="G9" t="n">
-        <v>11.89666666666663</v>
+        <v>11.89166666666663</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6020</v>
+        <v>18060</v>
       </c>
       <c r="G10" t="n">
-        <v>11.90166666666663</v>
+        <v>11.89666666666663</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>12.1</v>
       </c>
       <c r="F11" t="n">
-        <v>8886.358</v>
+        <v>6020</v>
       </c>
       <c r="G11" t="n">
-        <v>11.9033333333333</v>
+        <v>11.90166666666663</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>22380</v>
+        <v>8886.358</v>
       </c>
       <c r="G12" t="n">
-        <v>11.9083333333333</v>
+        <v>11.9033333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>22380</v>
       </c>
       <c r="G13" t="n">
-        <v>11.9133333333333</v>
+        <v>11.9083333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>22380</v>
       </c>
       <c r="G14" t="n">
-        <v>11.91999999999997</v>
+        <v>11.9133333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>12.1</v>
       </c>
       <c r="C15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E15" t="n">
         <v>12.1</v>
       </c>
       <c r="F15" t="n">
-        <v>32050.1639</v>
+        <v>22380</v>
       </c>
       <c r="G15" t="n">
-        <v>11.92666666666664</v>
+        <v>11.91999999999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D16" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E16" t="n">
         <v>12.1</v>
       </c>
       <c r="F16" t="n">
-        <v>7460</v>
+        <v>32050.1639</v>
       </c>
       <c r="G16" t="n">
-        <v>11.9333333333333</v>
+        <v>11.92666666666664</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>12.1</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>7460</v>
       </c>
       <c r="G17" t="n">
-        <v>11.93499999999997</v>
+        <v>11.9333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>12.1</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>11.93666666666664</v>
+        <v>11.93499999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F19" t="n">
-        <v>17743.2151</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>11.93999999999997</v>
+        <v>11.93666666666664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>134290.2003</v>
+        <v>17743.2151</v>
       </c>
       <c r="G20" t="n">
-        <v>11.9433333333333</v>
+        <v>11.93999999999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>16067.6852</v>
+        <v>134290.2003</v>
       </c>
       <c r="G21" t="n">
-        <v>11.94499999999997</v>
+        <v>11.9433333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>7862.2314</v>
+        <v>16067.6852</v>
       </c>
       <c r="G22" t="n">
-        <v>11.9483333333333</v>
+        <v>11.94499999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F23" t="n">
-        <v>16220.9999</v>
+        <v>7862.2314</v>
       </c>
       <c r="G23" t="n">
-        <v>11.94999999999997</v>
+        <v>11.9483333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>710.2800999999999</v>
+        <v>16220.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>11.95166666666664</v>
+        <v>11.94999999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>68694.39870000001</v>
+        <v>710.2800999999999</v>
       </c>
       <c r="G25" t="n">
         <v>11.95166666666664</v>
@@ -1285,7 +1285,7 @@
         <v>11.9</v>
       </c>
       <c r="F26" t="n">
-        <v>278533.4683</v>
+        <v>68694.39870000001</v>
       </c>
       <c r="G26" t="n">
         <v>11.95166666666664</v>
@@ -1320,7 +1320,7 @@
         <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>3847.7764</v>
+        <v>278533.4683</v>
       </c>
       <c r="G27" t="n">
         <v>11.95166666666664</v>
@@ -1355,7 +1355,7 @@
         <v>11.9</v>
       </c>
       <c r="F28" t="n">
-        <v>42925.9996</v>
+        <v>3847.7764</v>
       </c>
       <c r="G28" t="n">
         <v>11.95166666666664</v>
@@ -1390,10 +1390,10 @@
         <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>2970</v>
+        <v>42925.9996</v>
       </c>
       <c r="G29" t="n">
-        <v>11.95333333333331</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,19 +1413,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>135481.0847</v>
+        <v>2970</v>
       </c>
       <c r="G30" t="n">
         <v>11.95333333333331</v>
@@ -1451,19 +1451,19 @@
         <v>11.8</v>
       </c>
       <c r="C31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D31" t="n">
         <v>11.8</v>
       </c>
       <c r="E31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F31" t="n">
-        <v>64518</v>
+        <v>135481.0847</v>
       </c>
       <c r="G31" t="n">
-        <v>11.95166666666664</v>
+        <v>11.95333333333331</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,32 +1483,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F32" t="n">
-        <v>11</v>
+        <v>64518</v>
       </c>
       <c r="G32" t="n">
-        <v>11.95333333333331</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1524,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
         <v>11.95333333333331</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,32 +1565,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C34" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D34" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E34" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F34" t="n">
-        <v>24985.97771983471</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>11.95833333333331</v>
+        <v>11.95333333333331</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1591,29 +1609,35 @@
         <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D35" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E35" t="n">
         <v>11.9</v>
       </c>
       <c r="F35" t="n">
-        <v>9390</v>
+        <v>24985.97771983471</v>
       </c>
       <c r="G35" t="n">
-        <v>11.96166666666664</v>
+        <v>11.95833333333331</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1638,7 +1662,7 @@
         <v>9390</v>
       </c>
       <c r="G36" t="n">
-        <v>11.96333333333331</v>
+        <v>11.96166666666664</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1672,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1698,10 @@
         <v>11.9</v>
       </c>
       <c r="F37" t="n">
-        <v>3070</v>
+        <v>9390</v>
       </c>
       <c r="G37" t="n">
-        <v>11.96499999999997</v>
+        <v>11.96333333333331</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1711,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1705,10 +1737,10 @@
         <v>11.9</v>
       </c>
       <c r="F38" t="n">
-        <v>1285.9663</v>
+        <v>3070</v>
       </c>
       <c r="G38" t="n">
-        <v>11.96833333333331</v>
+        <v>11.96499999999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1750,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,10 +1776,10 @@
         <v>11.9</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>1285.9663</v>
       </c>
       <c r="G39" t="n">
-        <v>11.96999999999997</v>
+        <v>11.96833333333331</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1789,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,10 +1815,10 @@
         <v>11.9</v>
       </c>
       <c r="F40" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>11.97166666666664</v>
+        <v>11.96999999999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1828,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1854,10 @@
         <v>11.9</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G41" t="n">
-        <v>11.97499999999997</v>
+        <v>11.97166666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1867,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1881,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F42" t="n">
-        <v>25966.4719</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
         <v>11.97499999999997</v>
@@ -1858,7 +1906,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,7 +1932,7 @@
         <v>11.8</v>
       </c>
       <c r="F43" t="n">
-        <v>702.1494</v>
+        <v>25966.4719</v>
       </c>
       <c r="G43" t="n">
         <v>11.97499999999997</v>
@@ -1893,7 +1945,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1959,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F44" t="n">
-        <v>1297.8506</v>
+        <v>702.1494</v>
       </c>
       <c r="G44" t="n">
-        <v>11.97333333333331</v>
+        <v>11.97499999999997</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1984,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,19 +1998,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E45" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1379.5126</v>
+        <v>1297.8506</v>
       </c>
       <c r="G45" t="n">
         <v>11.97333333333331</v>
@@ -1963,7 +2023,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2037,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E46" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F46" t="n">
-        <v>43011.5571</v>
+        <v>1379.5126</v>
       </c>
       <c r="G46" t="n">
-        <v>11.96999999999998</v>
+        <v>11.97333333333331</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2062,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,7 +2088,7 @@
         <v>11.7</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>43011.5571</v>
       </c>
       <c r="G47" t="n">
         <v>11.96999999999998</v>
@@ -2033,7 +2101,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,19 +2115,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E48" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
         <v>11.96999999999998</v>
@@ -2068,7 +2140,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,36 +2154,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E49" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="n">
-        <v>11.96666666666664</v>
+        <v>11.96999999999998</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2117,22 +2193,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E50" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F50" t="n">
-        <v>61135.5683</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>11.96499999999998</v>
+        <v>11.96666666666664</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2141,12 +2217,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2170,10 +2244,10 @@
         <v>11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>6345.7876</v>
+        <v>61135.5683</v>
       </c>
       <c r="G51" t="n">
-        <v>11.96333333333331</v>
+        <v>11.96499999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2182,12 +2256,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2199,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E52" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>6345.7876</v>
       </c>
       <c r="G52" t="n">
-        <v>11.95999999999998</v>
+        <v>11.96333333333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2224,7 +2296,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2246,10 +2322,10 @@
         <v>11.7</v>
       </c>
       <c r="F53" t="n">
-        <v>1368.6728</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>11.95499999999998</v>
+        <v>11.95999999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2259,7 +2335,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2269,19 +2349,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E54" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F54" t="n">
-        <v>4705.3781</v>
+        <v>1368.6728</v>
       </c>
       <c r="G54" t="n">
         <v>11.95499999999998</v>
@@ -2294,7 +2374,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2304,22 +2388,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E55" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F55" t="n">
-        <v>3140</v>
+        <v>4705.3781</v>
       </c>
       <c r="G55" t="n">
-        <v>11.95166666666664</v>
+        <v>11.95499999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2329,7 +2413,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +2427,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E56" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>3140</v>
       </c>
       <c r="G56" t="n">
-        <v>11.94666666666665</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2364,7 +2452,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2374,22 +2466,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E57" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>11.94499999999998</v>
+        <v>11.94666666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2399,7 +2491,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2409,22 +2505,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>11.94166666666664</v>
+        <v>11.94499999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2434,7 +2530,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2447,16 +2547,16 @@
         <v>11.8</v>
       </c>
       <c r="C59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E59" t="n">
         <v>11.8</v>
       </c>
       <c r="F59" t="n">
-        <v>6569.8065</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
         <v>11.94166666666664</v>
@@ -2469,7 +2569,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2479,7 +2583,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C60" t="n">
         <v>11.9</v>
@@ -2488,10 +2592,10 @@
         <v>11.9</v>
       </c>
       <c r="E60" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F60" t="n">
-        <v>29569.1604</v>
+        <v>6569.8065</v>
       </c>
       <c r="G60" t="n">
         <v>11.94166666666664</v>
@@ -2504,7 +2608,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2514,22 +2622,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>29569.1604</v>
       </c>
       <c r="G61" t="n">
-        <v>11.93333333333331</v>
+        <v>11.94166666666664</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2539,7 +2647,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2552,19 +2664,19 @@
         <v>11.8</v>
       </c>
       <c r="C62" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D62" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E62" t="n">
         <v>11.8</v>
       </c>
       <c r="F62" t="n">
-        <v>48146.8396</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>11.92999999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2574,7 +2686,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2587,19 +2703,19 @@
         <v>11.8</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E63" t="n">
         <v>11.8</v>
       </c>
       <c r="F63" t="n">
-        <v>3367.5764</v>
+        <v>48146.8396</v>
       </c>
       <c r="G63" t="n">
-        <v>11.92499999999998</v>
+        <v>11.92999999999998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2609,7 +2725,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2619,22 +2739,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F64" t="n">
-        <v>7098.375</v>
+        <v>3367.5764</v>
       </c>
       <c r="G64" t="n">
-        <v>11.92333333333331</v>
+        <v>11.92499999999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2644,7 +2764,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2654,22 +2778,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>7098.375</v>
       </c>
       <c r="G65" t="n">
-        <v>11.91833333333331</v>
+        <v>11.92333333333331</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2679,7 +2803,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2689,22 +2817,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F66" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>11.91333333333331</v>
+        <v>11.91833333333331</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2714,7 +2842,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2724,22 +2856,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>168.175</v>
+        <v>50000</v>
       </c>
       <c r="G67" t="n">
-        <v>11.91166666666664</v>
+        <v>11.91333333333331</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2749,7 +2881,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2759,7 +2895,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
         <v>12</v>
@@ -2768,13 +2904,13 @@
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F68" t="n">
-        <v>34468.4708</v>
+        <v>168.175</v>
       </c>
       <c r="G68" t="n">
-        <v>11.90999999999997</v>
+        <v>11.91166666666664</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2784,7 +2920,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2797,19 +2937,19 @@
         <v>11.8</v>
       </c>
       <c r="C69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
         <v>11.8</v>
       </c>
       <c r="F69" t="n">
-        <v>8143.7121</v>
+        <v>34468.4708</v>
       </c>
       <c r="G69" t="n">
-        <v>11.90499999999997</v>
+        <v>11.90999999999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2819,7 +2959,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2841,10 +2985,10 @@
         <v>11.8</v>
       </c>
       <c r="F70" t="n">
-        <v>5000.0001</v>
+        <v>8143.7121</v>
       </c>
       <c r="G70" t="n">
-        <v>11.89999999999997</v>
+        <v>11.90499999999997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2854,7 +2998,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2876,10 +3024,10 @@
         <v>11.8</v>
       </c>
       <c r="F71" t="n">
-        <v>4500</v>
+        <v>5000.0001</v>
       </c>
       <c r="G71" t="n">
-        <v>11.89499999999997</v>
+        <v>11.89999999999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2889,7 +3037,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2899,22 +3051,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F72" t="n">
-        <v>253.4166</v>
+        <v>4500</v>
       </c>
       <c r="G72" t="n">
-        <v>11.8933333333333</v>
+        <v>11.89499999999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2924,7 +3076,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2934,22 +3090,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>253.4166</v>
       </c>
       <c r="G73" t="n">
-        <v>11.88999999999997</v>
+        <v>11.8933333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2959,7 +3115,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2981,10 +3141,10 @@
         <v>11.9</v>
       </c>
       <c r="F74" t="n">
-        <v>37869.7999</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>11.88666666666663</v>
+        <v>11.88999999999997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2994,7 +3154,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3004,22 +3168,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F75" t="n">
-        <v>12</v>
+        <v>37869.7999</v>
       </c>
       <c r="G75" t="n">
-        <v>11.8833333333333</v>
+        <v>11.88666666666663</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3029,7 +3193,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3039,22 +3207,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
-        <v>11.87999999999997</v>
+        <v>11.8833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3064,7 +3232,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3086,10 +3258,10 @@
         <v>11.9</v>
       </c>
       <c r="F77" t="n">
-        <v>68607.5107</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>11.87666666666663</v>
+        <v>11.87999999999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3099,7 +3271,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3109,22 +3285,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E78" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>68607.5107</v>
       </c>
       <c r="G78" t="n">
-        <v>11.87166666666663</v>
+        <v>11.87666666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3134,7 +3310,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3144,22 +3324,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E79" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F79" t="n">
-        <v>165232.1497</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>11.86999999999996</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3169,7 +3349,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3179,22 +3363,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C80" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D80" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F80" t="n">
-        <v>164695.2194</v>
+        <v>165232.1497</v>
       </c>
       <c r="G80" t="n">
-        <v>11.87166666666663</v>
+        <v>11.86999999999996</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3204,7 +3388,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3217,16 +3405,16 @@
         <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E81" t="n">
         <v>12</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>164695.2194</v>
       </c>
       <c r="G81" t="n">
         <v>11.87166666666663</v>
@@ -3239,7 +3427,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3261,10 +3453,10 @@
         <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>8437.2474</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>11.86999999999996</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3274,7 +3466,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +3480,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>15127.2509</v>
+        <v>8437.2474</v>
       </c>
       <c r="G83" t="n">
-        <v>11.87166666666663</v>
+        <v>11.86999999999996</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3309,7 +3505,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3319,22 +3519,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E84" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F84" t="n">
-        <v>225953.1906</v>
+        <v>15127.2509</v>
       </c>
       <c r="G84" t="n">
-        <v>11.87499999999996</v>
+        <v>11.87166666666663</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3344,7 +3544,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3366,10 +3570,10 @@
         <v>12.2</v>
       </c>
       <c r="F85" t="n">
-        <v>1421.5574</v>
+        <v>225953.1906</v>
       </c>
       <c r="G85" t="n">
-        <v>11.87999999999997</v>
+        <v>11.87499999999996</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3379,7 +3583,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3389,22 +3597,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E86" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F86" t="n">
-        <v>35583.8808</v>
+        <v>1421.5574</v>
       </c>
       <c r="G86" t="n">
-        <v>11.8833333333333</v>
+        <v>11.87999999999997</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3414,7 +3622,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3424,22 +3636,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E87" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>40983.6065</v>
+        <v>35583.8808</v>
       </c>
       <c r="G87" t="n">
-        <v>11.8883333333333</v>
+        <v>11.8833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3449,7 +3661,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3471,10 +3687,10 @@
         <v>12.2</v>
       </c>
       <c r="F88" t="n">
-        <v>7883.1252</v>
+        <v>40983.6065</v>
       </c>
       <c r="G88" t="n">
-        <v>11.8933333333333</v>
+        <v>11.8883333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3484,7 +3700,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3506,10 +3726,10 @@
         <v>12.2</v>
       </c>
       <c r="F89" t="n">
-        <v>50</v>
+        <v>7883.1252</v>
       </c>
       <c r="G89" t="n">
-        <v>11.8983333333333</v>
+        <v>11.8933333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3519,7 +3739,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3529,22 +3753,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C90" t="n">
         <v>12.2</v>
       </c>
       <c r="D90" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E90" t="n">
         <v>12.2</v>
       </c>
       <c r="F90" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G90" t="n">
-        <v>11.90499999999997</v>
+        <v>11.8983333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3554,7 +3778,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3564,22 +3792,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C91" t="n">
         <v>12.2</v>
       </c>
       <c r="D91" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E91" t="n">
         <v>12.2</v>
       </c>
       <c r="F91" t="n">
-        <v>2600</v>
+        <v>22</v>
       </c>
       <c r="G91" t="n">
-        <v>11.9133333333333</v>
+        <v>11.90499999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3589,7 +3817,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3611,10 +3843,10 @@
         <v>12.2</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>2600</v>
       </c>
       <c r="G92" t="n">
-        <v>11.9183333333333</v>
+        <v>11.9133333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3624,7 +3856,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3646,10 +3882,10 @@
         <v>12.2</v>
       </c>
       <c r="F93" t="n">
-        <v>3361.3444</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>11.92499999999997</v>
+        <v>11.9183333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3659,7 +3895,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3681,10 +3921,10 @@
         <v>12.2</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>3361.3444</v>
       </c>
       <c r="G94" t="n">
-        <v>11.92666666666664</v>
+        <v>11.92499999999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3694,7 +3934,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3716,10 +3960,10 @@
         <v>12.2</v>
       </c>
       <c r="F95" t="n">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>11.93166666666664</v>
+        <v>11.92666666666664</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3729,7 +3973,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3742,19 +3990,19 @@
         <v>12.2</v>
       </c>
       <c r="C96" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D96" t="n">
         <v>12.2</v>
       </c>
       <c r="E96" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F96" t="n">
-        <v>45995.1533</v>
+        <v>30000</v>
       </c>
       <c r="G96" t="n">
-        <v>11.93499999999998</v>
+        <v>11.93166666666664</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3764,7 +4012,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3774,22 +4026,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C97" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D97" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E97" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F97" t="n">
-        <v>241.9354</v>
+        <v>45995.1533</v>
       </c>
       <c r="G97" t="n">
-        <v>11.94333333333331</v>
+        <v>11.93499999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3799,7 +4051,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3809,22 +4065,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C98" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D98" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E98" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>241.9354</v>
       </c>
       <c r="G98" t="n">
-        <v>11.94666666666664</v>
+        <v>11.94333333333331</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3834,7 +4090,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3856,10 +4116,10 @@
         <v>12.1</v>
       </c>
       <c r="F99" t="n">
-        <v>174518.1842</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>11.94999999999998</v>
+        <v>11.94666666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3869,7 +4129,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +4143,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C100" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>174518.1842</v>
       </c>
       <c r="G100" t="n">
-        <v>11.95666666666664</v>
+        <v>11.94999999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3904,7 +4168,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +4182,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E101" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G101" t="n">
-        <v>11.95999999999998</v>
+        <v>11.95666666666664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3939,7 +4207,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3961,10 +4233,10 @@
         <v>12.1</v>
       </c>
       <c r="F102" t="n">
-        <v>40890.395</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>11.96499999999998</v>
+        <v>11.95999999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3974,7 +4246,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4260,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E103" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F103" t="n">
-        <v>6147.6229</v>
+        <v>40890.395</v>
       </c>
       <c r="G103" t="n">
-        <v>11.97166666666665</v>
+        <v>11.96499999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4009,7 +4285,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +4299,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E104" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F104" t="n">
-        <v>91124.0831</v>
+        <v>6147.6229</v>
       </c>
       <c r="G104" t="n">
-        <v>11.97833333333331</v>
+        <v>11.97166666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4044,7 +4324,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4066,10 +4350,10 @@
         <v>12.1</v>
       </c>
       <c r="F105" t="n">
-        <v>810</v>
+        <v>91124.0831</v>
       </c>
       <c r="G105" t="n">
-        <v>11.98166666666665</v>
+        <v>11.97833333333331</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4079,7 +4363,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4089,22 +4377,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>810</v>
       </c>
       <c r="G106" t="n">
-        <v>11.98666666666665</v>
+        <v>11.98166666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4114,7 +4402,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4416,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>63891.157</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>11.99333333333331</v>
+        <v>11.98666666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4149,7 +4441,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4159,22 +4455,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>63891.157</v>
       </c>
       <c r="G108" t="n">
-        <v>11.99499999999998</v>
+        <v>11.99333333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4184,7 +4480,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4194,22 +4494,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E109" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>2783.6387</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>12.00166666666665</v>
+        <v>11.99499999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4219,7 +4519,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4229,22 +4533,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F110" t="n">
-        <v>118</v>
+        <v>2783.6387</v>
       </c>
       <c r="G110" t="n">
-        <v>12.00833333333332</v>
+        <v>12.00166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4254,7 +4558,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4276,10 +4584,10 @@
         <v>12.2</v>
       </c>
       <c r="F111" t="n">
-        <v>4658.5901</v>
+        <v>118</v>
       </c>
       <c r="G111" t="n">
-        <v>12.01499999999998</v>
+        <v>12.00833333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4289,7 +4597,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4311,10 +4623,10 @@
         <v>12.2</v>
       </c>
       <c r="F112" t="n">
-        <v>16393.4426</v>
+        <v>4658.5901</v>
       </c>
       <c r="G112" t="n">
-        <v>12.02333333333332</v>
+        <v>12.01499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4324,8 +4636,51 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16393.4426</v>
+      </c>
+      <c r="G113" t="n">
+        <v>12.02333333333332</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>538672.1010365854</v>
       </c>
       <c r="G2" t="n">
+        <v>11.94666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.83499999999996</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>8800</v>
       </c>
       <c r="G3" t="n">
+        <v>11.97333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.84499999999996</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>8800</v>
       </c>
       <c r="G4" t="n">
+        <v>11.98666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.85499999999996</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3887.272727272727</v>
       </c>
       <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.86333333333329</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>40413.41507272727</v>
       </c>
       <c r="G6" t="n">
+        <v>12.01333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.87166666666663</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.88166666666663</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>24081.6265</v>
       </c>
       <c r="G8" t="n">
+        <v>12.04666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.88666666666663</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>18060</v>
       </c>
       <c r="G9" t="n">
+        <v>12.05333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.89166666666663</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>18060</v>
       </c>
       <c r="G10" t="n">
+        <v>12.06666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.89666666666663</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>6020</v>
       </c>
       <c r="G11" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.90166666666663</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>8886.358</v>
       </c>
       <c r="G12" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.9033333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>22380</v>
       </c>
       <c r="G13" t="n">
+        <v>12.08666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.9083333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>22380</v>
       </c>
       <c r="G14" t="n">
+        <v>12.09333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.9133333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>22380</v>
       </c>
       <c r="G15" t="n">
+        <v>12.10666666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.91999999999997</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>32050.1639</v>
       </c>
       <c r="G16" t="n">
+        <v>12.12666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.92666666666664</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>7460</v>
       </c>
       <c r="G17" t="n">
+        <v>12.11333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.9333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10000</v>
       </c>
       <c r="G18" t="n">
+        <v>12.11333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.93499999999997</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
+        <v>12.11333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.93666666666664</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>17743.2151</v>
       </c>
       <c r="G20" t="n">
+        <v>12.10666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.93999999999997</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>134290.2003</v>
       </c>
       <c r="G21" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.9433333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>16067.6852</v>
       </c>
       <c r="G22" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.94499999999997</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>7862.2314</v>
       </c>
       <c r="G23" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.9483333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>16220.9999</v>
       </c>
       <c r="G24" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.94999999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>710.2800999999999</v>
       </c>
       <c r="G25" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>68694.39870000001</v>
       </c>
       <c r="G26" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>278533.4683</v>
       </c>
       <c r="G27" t="n">
+        <v>12.04666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>3847.7764</v>
       </c>
       <c r="G28" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>42925.9996</v>
       </c>
       <c r="G29" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2970</v>
       </c>
       <c r="G30" t="n">
+        <v>12.00666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.95333333333331</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>135481.0847</v>
       </c>
       <c r="G31" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.95333333333331</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,24 +1593,21 @@
         <v>64518</v>
       </c>
       <c r="G32" t="n">
+        <v>11.95333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1539,24 +1631,21 @@
         <v>11</v>
       </c>
       <c r="G33" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.95333333333331</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,24 +1669,21 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
+        <v>11.92000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.95333333333331</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,24 +1707,21 @@
         <v>24985.97771983471</v>
       </c>
       <c r="G35" t="n">
+        <v>11.92666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.95833333333331</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,22 +1745,21 @@
         <v>9390</v>
       </c>
       <c r="G36" t="n">
+        <v>11.92000000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.96166666666664</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1701,22 +1783,21 @@
         <v>9390</v>
       </c>
       <c r="G37" t="n">
+        <v>11.91333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.96333333333331</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1740,22 +1821,21 @@
         <v>3070</v>
       </c>
       <c r="G38" t="n">
+        <v>11.90000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.96499999999997</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,22 +1859,21 @@
         <v>1285.9663</v>
       </c>
       <c r="G39" t="n">
+        <v>11.89333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.96833333333331</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,22 +1897,21 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
+        <v>11.88666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.96999999999997</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1857,22 +1935,21 @@
         <v>60</v>
       </c>
       <c r="G41" t="n">
+        <v>11.88666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.97166666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1896,22 +1973,21 @@
         <v>50</v>
       </c>
       <c r="G42" t="n">
+        <v>11.88666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.97499999999997</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1935,22 +2011,21 @@
         <v>25966.4719</v>
       </c>
       <c r="G43" t="n">
+        <v>11.88000000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.97499999999997</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,22 +2049,21 @@
         <v>702.1494</v>
       </c>
       <c r="G44" t="n">
+        <v>11.87333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.97499999999997</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2013,22 +2087,21 @@
         <v>1297.8506</v>
       </c>
       <c r="G45" t="n">
+        <v>11.86000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.97333333333331</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,22 +2125,21 @@
         <v>1379.5126</v>
       </c>
       <c r="G46" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.97333333333331</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2091,22 +2163,21 @@
         <v>43011.5571</v>
       </c>
       <c r="G47" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.96999999999998</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,22 +2201,21 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
+        <v>11.85333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.96999999999998</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2169,22 +2239,21 @@
         <v>2500</v>
       </c>
       <c r="G49" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.96999999999998</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,22 +2277,21 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
+        <v>11.83333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.96666666666664</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2247,22 +2315,21 @@
         <v>61135.5683</v>
       </c>
       <c r="G51" t="n">
+        <v>11.82666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.96499999999998</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,22 +2353,25 @@
         <v>6345.7876</v>
       </c>
       <c r="G52" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.96333333333331</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2325,22 +2395,29 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.95999999999998</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,22 +2441,29 @@
         <v>1368.6728</v>
       </c>
       <c r="G54" t="n">
+        <v>11.79333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.95499999999998</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L54" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2403,22 +2487,25 @@
         <v>4705.3781</v>
       </c>
       <c r="G55" t="n">
+        <v>11.79333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.95499999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L55" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,22 +2529,29 @@
         <v>3140</v>
       </c>
       <c r="G56" t="n">
+        <v>11.78666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.95166666666664</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L56" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2481,22 +2575,29 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>11.77333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.94666666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,22 +2621,25 @@
         <v>11</v>
       </c>
       <c r="G58" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.94499999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2559,22 +2663,29 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.94166666666664</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,22 +2709,29 @@
         <v>6569.8065</v>
       </c>
       <c r="G60" t="n">
+        <v>11.79333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.94166666666664</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2637,22 +2755,25 @@
         <v>29569.1604</v>
       </c>
       <c r="G61" t="n">
+        <v>11.79333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.94166666666664</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,22 +2797,27 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.93333333333331</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2715,22 +2841,27 @@
         <v>48146.8396</v>
       </c>
       <c r="G63" t="n">
+        <v>11.81333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.92999999999998</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,22 +2885,27 @@
         <v>3367.5764</v>
       </c>
       <c r="G64" t="n">
+        <v>11.80666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.92499999999998</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,22 +2929,27 @@
         <v>7098.375</v>
       </c>
       <c r="G65" t="n">
+        <v>11.82666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.92333333333331</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,22 +2973,27 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
+        <v>11.82666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>11.91833333333331</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,22 +3017,27 @@
         <v>50000</v>
       </c>
       <c r="G67" t="n">
+        <v>11.83333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>11.91333333333331</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,22 +3061,27 @@
         <v>168.175</v>
       </c>
       <c r="G68" t="n">
+        <v>11.85333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>11.91166666666664</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,22 +3105,27 @@
         <v>34468.4708</v>
       </c>
       <c r="G69" t="n">
+        <v>11.87333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>11.90999999999997</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,22 +3149,27 @@
         <v>8143.7121</v>
       </c>
       <c r="G70" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>11.90499999999997</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3027,22 +3193,27 @@
         <v>5000.0001</v>
       </c>
       <c r="G71" t="n">
+        <v>11.86666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>11.89999999999997</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,22 +3237,27 @@
         <v>4500</v>
       </c>
       <c r="G72" t="n">
+        <v>11.87333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>11.89499999999997</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3105,22 +3281,27 @@
         <v>253.4166</v>
       </c>
       <c r="G73" t="n">
+        <v>11.88000000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>11.8933333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,22 +3325,27 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>11.88666666666668</v>
+      </c>
+      <c r="H74" t="n">
         <v>11.88999999999997</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3183,22 +3369,27 @@
         <v>37869.7999</v>
       </c>
       <c r="G75" t="n">
+        <v>11.88666666666668</v>
+      </c>
+      <c r="H75" t="n">
         <v>11.88666666666663</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,22 +3413,27 @@
         <v>12</v>
       </c>
       <c r="G76" t="n">
+        <v>11.89333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>11.8833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3261,22 +3457,27 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
+        <v>11.90000000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>11.87999999999997</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,22 +3501,27 @@
         <v>68607.5107</v>
       </c>
       <c r="G78" t="n">
+        <v>11.90000000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>11.87666666666663</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3339,22 +3545,27 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
+        <v>11.90000000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>11.87166666666663</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3378,22 +3589,27 @@
         <v>165232.1497</v>
       </c>
       <c r="G80" t="n">
+        <v>11.89333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>11.86999999999996</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3417,22 +3633,27 @@
         <v>164695.2194</v>
       </c>
       <c r="G81" t="n">
+        <v>11.91333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>11.87166666666663</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,22 +3677,27 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
+        <v>11.92000000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>11.87166666666663</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3495,22 +3721,27 @@
         <v>8437.2474</v>
       </c>
       <c r="G83" t="n">
+        <v>11.92000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>11.86999999999996</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,22 +3765,27 @@
         <v>15127.2509</v>
       </c>
       <c r="G84" t="n">
+        <v>11.92666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>11.87166666666663</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3573,22 +3809,27 @@
         <v>225953.1906</v>
       </c>
       <c r="G85" t="n">
+        <v>11.95333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.87499999999996</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,22 +3853,27 @@
         <v>1421.5574</v>
       </c>
       <c r="G86" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.87999999999997</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,22 +3897,27 @@
         <v>35583.8808</v>
       </c>
       <c r="G87" t="n">
+        <v>12</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.8833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,22 +3941,27 @@
         <v>40983.6065</v>
       </c>
       <c r="G88" t="n">
+        <v>12.01333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.8883333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3729,22 +3985,27 @@
         <v>7883.1252</v>
       </c>
       <c r="G89" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.8933333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3768,22 +4029,27 @@
         <v>50</v>
       </c>
       <c r="G90" t="n">
+        <v>12.05333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.8983333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,22 +4073,27 @@
         <v>22</v>
       </c>
       <c r="G91" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.90499999999997</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,22 +4117,27 @@
         <v>2600</v>
       </c>
       <c r="G92" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.9133333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,22 +4161,27 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
+        <v>12.10666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.9183333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,22 +4205,27 @@
         <v>3361.3444</v>
       </c>
       <c r="G94" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.92499999999997</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,22 +4249,27 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.92666666666664</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,22 +4293,27 @@
         <v>30000</v>
       </c>
       <c r="G96" t="n">
+        <v>12.15999999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.93166666666664</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4041,22 +4337,27 @@
         <v>45995.1533</v>
       </c>
       <c r="G97" t="n">
+        <v>12.16666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.93499999999998</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,22 +4381,27 @@
         <v>241.9354</v>
       </c>
       <c r="G98" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.94333333333331</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,23 +4425,28 @@
         <v>20</v>
       </c>
       <c r="G99" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.94666666666664</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
+      <c r="L99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>1.011806722689076</v>
       </c>
     </row>
     <row r="100">
@@ -4158,22 +4469,21 @@
         <v>174518.1842</v>
       </c>
       <c r="G100" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.94999999999998</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4197,22 +4507,21 @@
         <v>11</v>
       </c>
       <c r="G101" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.95666666666664</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,22 +4545,21 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
+        <v>12.19333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.95999999999998</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4275,22 +4583,21 @@
         <v>40890.395</v>
       </c>
       <c r="G103" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.96499999999998</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,22 +4621,21 @@
         <v>6147.6229</v>
       </c>
       <c r="G104" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.97166666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,22 +4659,21 @@
         <v>91124.0831</v>
       </c>
       <c r="G105" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.97833333333331</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,22 +4697,21 @@
         <v>810</v>
       </c>
       <c r="G106" t="n">
+        <v>12.17333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.98166666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,22 +4735,21 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.98666666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,22 +4773,21 @@
         <v>63891.157</v>
       </c>
       <c r="G108" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.99333333333331</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,22 +4811,21 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.99499999999998</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,22 +4849,21 @@
         <v>2783.6387</v>
       </c>
       <c r="G110" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.00166666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4587,22 +4887,21 @@
         <v>118</v>
       </c>
       <c r="G111" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.00833333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,22 +4925,21 @@
         <v>4658.5901</v>
       </c>
       <c r="G112" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.01499999999998</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,22 +4963,401 @@
         <v>16393.4426</v>
       </c>
       <c r="G113" t="n">
+        <v>12.12666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.02333333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12.12666666666666</v>
+      </c>
+      <c r="H114" t="n">
+        <v>12.02999999999998</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11</v>
+      </c>
+      <c r="G115" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H115" t="n">
+        <v>12.03666666666665</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>29440.4918</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>12.04333333333332</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>12.04999999999998</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12.05499999999998</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>49175.4019</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="H119" t="n">
+        <v>12.06166666666665</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3889.2804</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>12.06833333333332</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>23626.275</v>
+      </c>
+      <c r="G121" t="n">
+        <v>12.16666666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>12.07499999999999</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>121224.7617</v>
+      </c>
+      <c r="G122" t="n">
+        <v>12.18666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>12.08333333333332</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8064.516</v>
+      </c>
+      <c r="G123" t="n">
+        <v>12.20666666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>12.09166666666665</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C2" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F2" t="n">
-        <v>538672.1010365854</v>
+        <v>33291.8302</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94666666666667</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H2" t="n">
-        <v>11.83499999999996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E3" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F3" t="n">
-        <v>8800</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>11.97333333333334</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H3" t="n">
-        <v>11.84499999999996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C4" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E4" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F4" t="n">
-        <v>8800</v>
+        <v>29105.7109</v>
       </c>
       <c r="G4" t="n">
-        <v>11.98666666666667</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H4" t="n">
-        <v>11.85499999999996</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F5" t="n">
-        <v>3887.272727272727</v>
+        <v>46068.376</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>-963979.0685863249</v>
       </c>
       <c r="H5" t="n">
-        <v>11.86333333333329</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F6" t="n">
-        <v>40413.41507272727</v>
+        <v>1591.0946</v>
       </c>
       <c r="G6" t="n">
-        <v>12.01333333333334</v>
+        <v>-962387.973986325</v>
       </c>
       <c r="H6" t="n">
-        <v>11.87166666666663</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C7" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D7" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E7" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>166278.0193</v>
       </c>
       <c r="G7" t="n">
-        <v>12.03333333333333</v>
+        <v>-962387.973986325</v>
       </c>
       <c r="H7" t="n">
-        <v>11.88166666666663</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C8" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D8" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E8" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F8" t="n">
-        <v>24081.6265</v>
+        <v>26560.3316</v>
       </c>
       <c r="G8" t="n">
-        <v>12.04666666666667</v>
+        <v>-988948.305586325</v>
       </c>
       <c r="H8" t="n">
-        <v>11.88666666666663</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C9" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E9" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F9" t="n">
-        <v>18060</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>12.05333333333333</v>
+        <v>-988937.305586325</v>
       </c>
       <c r="H9" t="n">
-        <v>11.89166666666663</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C10" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E10" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F10" t="n">
-        <v>18060</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>12.06666666666667</v>
+        <v>-988937.305586325</v>
       </c>
       <c r="H10" t="n">
-        <v>11.89666666666663</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C11" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E11" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F11" t="n">
-        <v>6020</v>
+        <v>48967.533</v>
       </c>
       <c r="G11" t="n">
-        <v>12.07333333333333</v>
+        <v>-1037904.838586325</v>
       </c>
       <c r="H11" t="n">
-        <v>11.90166666666663</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C12" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D12" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E12" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F12" t="n">
-        <v>8886.358</v>
+        <v>50011</v>
       </c>
       <c r="G12" t="n">
-        <v>12.08</v>
+        <v>-987893.8385863251</v>
       </c>
       <c r="H12" t="n">
-        <v>11.9033333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D13" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E13" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F13" t="n">
-        <v>22380</v>
+        <v>2579.5656</v>
       </c>
       <c r="G13" t="n">
-        <v>12.08666666666667</v>
+        <v>-987893.8385863251</v>
       </c>
       <c r="H13" t="n">
-        <v>11.9083333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C14" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E14" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F14" t="n">
-        <v>22380</v>
+        <v>6175.4385</v>
       </c>
       <c r="G14" t="n">
-        <v>12.09333333333333</v>
+        <v>-987893.8385863251</v>
       </c>
       <c r="H14" t="n">
-        <v>11.9133333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C15" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D15" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E15" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F15" t="n">
-        <v>22380</v>
+        <v>61078.2608</v>
       </c>
       <c r="G15" t="n">
-        <v>12.10666666666666</v>
+        <v>-926815.577786325</v>
       </c>
       <c r="H15" t="n">
-        <v>11.91999999999997</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C16" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E16" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F16" t="n">
-        <v>32050.1639</v>
+        <v>8800</v>
       </c>
       <c r="G16" t="n">
-        <v>12.12666666666666</v>
+        <v>-926815.577786325</v>
       </c>
       <c r="H16" t="n">
-        <v>11.92666666666664</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C17" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D17" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E17" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F17" t="n">
-        <v>7460</v>
+        <v>616834.4431</v>
       </c>
       <c r="G17" t="n">
-        <v>12.11333333333333</v>
+        <v>-1543650.020886325</v>
       </c>
       <c r="H17" t="n">
-        <v>11.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C18" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D18" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E18" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>30074.7899</v>
       </c>
       <c r="G18" t="n">
-        <v>12.11333333333333</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H18" t="n">
-        <v>11.93499999999997</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C19" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D19" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E19" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>5159.8927</v>
       </c>
       <c r="G19" t="n">
-        <v>12.11333333333333</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H19" t="n">
-        <v>11.93666666666664</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F20" t="n">
-        <v>17743.2151</v>
+        <v>31858.266</v>
       </c>
       <c r="G20" t="n">
-        <v>12.10666666666666</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H20" t="n">
-        <v>11.93999999999997</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F21" t="n">
-        <v>134290.2003</v>
+        <v>53788.003</v>
       </c>
       <c r="G21" t="n">
-        <v>12.1</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H21" t="n">
-        <v>11.9433333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,33 +1136,30 @@
         <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D22" t="n">
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>16067.6852</v>
+        <v>33232.6409</v>
       </c>
       <c r="G22" t="n">
-        <v>12.08666666666666</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H22" t="n">
-        <v>11.94499999999997</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>7862.2314</v>
+        <v>6813.8909</v>
       </c>
       <c r="G23" t="n">
-        <v>12.08666666666666</v>
+        <v>-1506761.340086325</v>
       </c>
       <c r="H23" t="n">
-        <v>11.9483333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F24" t="n">
-        <v>16220.9999</v>
+        <v>8800</v>
       </c>
       <c r="G24" t="n">
-        <v>12.08</v>
+        <v>-1515561.340086325</v>
       </c>
       <c r="H24" t="n">
-        <v>11.94999999999997</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C25" t="n">
         <v>12</v>
@@ -1321,27 +1247,24 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F25" t="n">
-        <v>710.2800999999999</v>
+        <v>49903.9436</v>
       </c>
       <c r="G25" t="n">
-        <v>12.07333333333333</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H25" t="n">
-        <v>11.95166666666664</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>68694.39870000001</v>
+        <v>42919.405</v>
       </c>
       <c r="G26" t="n">
-        <v>12.06</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H26" t="n">
-        <v>11.95166666666664</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>278533.4683</v>
+        <v>26855.5</v>
       </c>
       <c r="G27" t="n">
-        <v>12.04666666666667</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H27" t="n">
-        <v>11.95166666666664</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>3847.7764</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>12.03333333333333</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H28" t="n">
-        <v>11.95166666666664</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1476,24 +1390,21 @@
         <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>42925.9996</v>
+        <v>45689.7766</v>
       </c>
       <c r="G29" t="n">
-        <v>12.02</v>
+        <v>-1511347.173086325</v>
       </c>
       <c r="H29" t="n">
-        <v>11.95166666666664</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,24 +1425,21 @@
         <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>2970</v>
+        <v>50000</v>
       </c>
       <c r="G30" t="n">
-        <v>12.00666666666667</v>
+        <v>-1511347.173086325</v>
       </c>
       <c r="H30" t="n">
-        <v>11.95333333333331</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="D31" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="E31" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>135481.0847</v>
+        <v>538672.1010365854</v>
       </c>
       <c r="G31" t="n">
-        <v>11.98</v>
+        <v>-972675.0720497398</v>
       </c>
       <c r="H31" t="n">
-        <v>11.95333333333331</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C32" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D32" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E32" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F32" t="n">
-        <v>64518</v>
+        <v>8800</v>
       </c>
       <c r="G32" t="n">
-        <v>11.95333333333334</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H32" t="n">
-        <v>11.95166666666664</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C33" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D33" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E33" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>8800</v>
       </c>
       <c r="G33" t="n">
-        <v>11.94</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H33" t="n">
-        <v>11.95333333333331</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C34" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D34" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E34" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>3887.272727272727</v>
       </c>
       <c r="G34" t="n">
-        <v>11.92000000000001</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H34" t="n">
-        <v>11.95333333333331</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C35" t="n">
         <v>12.1</v>
@@ -1701,27 +1597,24 @@
         <v>12.1</v>
       </c>
       <c r="E35" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F35" t="n">
-        <v>24985.97771983471</v>
+        <v>40413.41507272727</v>
       </c>
       <c r="G35" t="n">
-        <v>11.92666666666667</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H35" t="n">
-        <v>11.95833333333331</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C36" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D36" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E36" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F36" t="n">
-        <v>9390</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>11.92000000000001</v>
+        <v>-981465.0720497398</v>
       </c>
       <c r="H36" t="n">
-        <v>11.96166666666664</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>9390</v>
+        <v>24081.6265</v>
       </c>
       <c r="G37" t="n">
-        <v>11.91333333333334</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H37" t="n">
-        <v>11.96333333333331</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C38" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D38" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E38" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F38" t="n">
-        <v>3070</v>
+        <v>18060</v>
       </c>
       <c r="G38" t="n">
-        <v>11.90000000000001</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H38" t="n">
-        <v>11.96499999999997</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C39" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D39" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E39" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>1285.9663</v>
+        <v>18060</v>
       </c>
       <c r="G39" t="n">
-        <v>11.89333333333334</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H39" t="n">
-        <v>11.96833333333331</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>6020</v>
       </c>
       <c r="G40" t="n">
-        <v>11.88666666666667</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H40" t="n">
-        <v>11.96999999999997</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C41" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D41" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E41" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F41" t="n">
-        <v>60</v>
+        <v>8886.358</v>
       </c>
       <c r="G41" t="n">
-        <v>11.88666666666667</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H41" t="n">
-        <v>11.97166666666664</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C42" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D42" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E42" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>22380</v>
       </c>
       <c r="G42" t="n">
-        <v>11.88666666666667</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H42" t="n">
-        <v>11.97499999999997</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C43" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D43" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E43" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F43" t="n">
-        <v>25966.4719</v>
+        <v>22380</v>
       </c>
       <c r="G43" t="n">
-        <v>11.88000000000001</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H43" t="n">
-        <v>11.97499999999997</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C44" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D44" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E44" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F44" t="n">
-        <v>702.1494</v>
+        <v>22380</v>
       </c>
       <c r="G44" t="n">
-        <v>11.87333333333334</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H44" t="n">
-        <v>11.97499999999997</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C45" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D45" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E45" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F45" t="n">
-        <v>1297.8506</v>
+        <v>32050.1639</v>
       </c>
       <c r="G45" t="n">
-        <v>11.86000000000001</v>
+        <v>-973496.5346497397</v>
       </c>
       <c r="H45" t="n">
-        <v>11.97333333333331</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C46" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D46" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E46" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>1379.5126</v>
+        <v>7460</v>
       </c>
       <c r="G46" t="n">
-        <v>11.86666666666667</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H46" t="n">
-        <v>11.97333333333331</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C47" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D47" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E47" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F47" t="n">
-        <v>43011.5571</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>11.86666666666667</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H47" t="n">
-        <v>11.96999999999998</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C48" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D48" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E48" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>11.85333333333334</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H48" t="n">
-        <v>11.96999999999998</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>17743.2151</v>
       </c>
       <c r="G49" t="n">
-        <v>11.86</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H49" t="n">
-        <v>11.96999999999998</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>134290.2003</v>
       </c>
       <c r="G50" t="n">
-        <v>11.83333333333334</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H50" t="n">
-        <v>11.96666666666664</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>61135.5683</v>
+        <v>16067.6852</v>
       </c>
       <c r="G51" t="n">
-        <v>11.82666666666667</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H51" t="n">
-        <v>11.96499999999998</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,40 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C52" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D52" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E52" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F52" t="n">
-        <v>6345.7876</v>
+        <v>7862.2314</v>
       </c>
       <c r="G52" t="n">
-        <v>11.82</v>
+        <v>-990837.5183497397</v>
       </c>
       <c r="H52" t="n">
-        <v>11.96333333333331</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2380,44 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>16220.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>11.80666666666667</v>
+        <v>-1007058.51824974</v>
       </c>
       <c r="H53" t="n">
-        <v>11.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L53" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,44 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>1368.6728</v>
+        <v>710.2800999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>11.79333333333333</v>
+        <v>-1007058.51824974</v>
       </c>
       <c r="H54" t="n">
-        <v>11.95499999999998</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L54" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,28 +2300,21 @@
         <v>11.9</v>
       </c>
       <c r="F55" t="n">
-        <v>4705.3781</v>
+        <v>68694.39870000001</v>
       </c>
       <c r="G55" t="n">
-        <v>11.79333333333333</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H55" t="n">
-        <v>11.95499999999998</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L55" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,44 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C56" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D56" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E56" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F56" t="n">
-        <v>3140</v>
+        <v>278533.4683</v>
       </c>
       <c r="G56" t="n">
-        <v>11.78666666666667</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H56" t="n">
-        <v>11.95166666666664</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L56" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2560,44 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C57" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D57" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E57" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>3847.7764</v>
       </c>
       <c r="G57" t="n">
-        <v>11.77333333333334</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H57" t="n">
-        <v>11.94666666666665</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L57" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,28 +2405,21 @@
         <v>11.9</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>42925.9996</v>
       </c>
       <c r="G58" t="n">
-        <v>11.78</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H58" t="n">
-        <v>11.94499999999998</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,44 +2428,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>2970</v>
       </c>
       <c r="G59" t="n">
-        <v>11.78</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H59" t="n">
-        <v>11.94166666666664</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="K59" t="n">
         <v>11.9</v>
       </c>
-      <c r="L59" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2697,41 +2470,36 @@
         <v>11.8</v>
       </c>
       <c r="C60" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D60" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E60" t="n">
         <v>11.8</v>
       </c>
       <c r="F60" t="n">
-        <v>6569.8065</v>
+        <v>135481.0847</v>
       </c>
       <c r="G60" t="n">
-        <v>11.79333333333333</v>
+        <v>-1211234.00164974</v>
       </c>
       <c r="H60" t="n">
-        <v>11.94166666666664</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L60" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="M60" t="inlineStr">
+        <v>11.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,40 +2508,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C61" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D61" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E61" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F61" t="n">
-        <v>29569.1604</v>
+        <v>64518</v>
       </c>
       <c r="G61" t="n">
-        <v>11.79333333333333</v>
+        <v>-1275752.00164974</v>
       </c>
       <c r="H61" t="n">
-        <v>11.94166666666664</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>11.9</v>
       </c>
-      <c r="L61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,42 +2549,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E62" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>11.8</v>
+        <v>-1275741.00164974</v>
       </c>
       <c r="H62" t="n">
-        <v>11.93333333333331</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K62" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,39 +2595,36 @@
         <v>11.8</v>
       </c>
       <c r="C63" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D63" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E63" t="n">
         <v>11.8</v>
       </c>
       <c r="F63" t="n">
-        <v>48146.8396</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>11.81333333333334</v>
+        <v>-1275751.00164974</v>
       </c>
       <c r="H63" t="n">
-        <v>11.92999999999998</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,42 +2633,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C64" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D64" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F64" t="n">
-        <v>3367.5764</v>
+        <v>24985.97771983471</v>
       </c>
       <c r="G64" t="n">
-        <v>11.80666666666667</v>
+        <v>-1250765.023929905</v>
       </c>
       <c r="H64" t="n">
-        <v>11.92499999999998</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,42 +2674,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F65" t="n">
-        <v>7098.375</v>
+        <v>9390</v>
       </c>
       <c r="G65" t="n">
-        <v>11.82666666666667</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H65" t="n">
-        <v>11.92333333333331</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,42 +2715,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E66" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>9390</v>
       </c>
       <c r="G66" t="n">
-        <v>11.82666666666667</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H66" t="n">
-        <v>11.91833333333331</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,30 +2768,27 @@
         <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>50000</v>
+        <v>3070</v>
       </c>
       <c r="G67" t="n">
-        <v>11.83333333333334</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H67" t="n">
-        <v>11.91333333333331</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,42 +2797,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F68" t="n">
-        <v>168.175</v>
+        <v>1285.9663</v>
       </c>
       <c r="G68" t="n">
-        <v>11.85333333333334</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H68" t="n">
-        <v>11.91166666666664</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,42 +2838,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E69" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F69" t="n">
-        <v>34468.4708</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>11.87333333333334</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H69" t="n">
-        <v>11.90999999999997</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,42 +2879,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C70" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D70" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E70" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F70" t="n">
-        <v>8143.7121</v>
+        <v>60</v>
       </c>
       <c r="G70" t="n">
-        <v>11.86666666666667</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H70" t="n">
-        <v>11.90499999999997</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,42 +2920,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C71" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D71" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E71" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F71" t="n">
-        <v>5000.0001</v>
+        <v>50</v>
       </c>
       <c r="G71" t="n">
-        <v>11.86666666666667</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H71" t="n">
-        <v>11.89999999999997</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,30 +2973,27 @@
         <v>11.8</v>
       </c>
       <c r="F72" t="n">
-        <v>4500</v>
+        <v>25966.4719</v>
       </c>
       <c r="G72" t="n">
-        <v>11.87333333333334</v>
+        <v>-1286121.495829905</v>
       </c>
       <c r="H72" t="n">
-        <v>11.89499999999997</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,42 +3002,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F73" t="n">
-        <v>253.4166</v>
+        <v>702.1494</v>
       </c>
       <c r="G73" t="n">
-        <v>11.88000000000001</v>
+        <v>-1286121.495829905</v>
       </c>
       <c r="H73" t="n">
-        <v>11.8933333333333</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K73" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,42 +3045,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C74" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D74" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E74" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>1297.8506</v>
       </c>
       <c r="G74" t="n">
-        <v>11.88666666666668</v>
+        <v>-1287419.346429905</v>
       </c>
       <c r="H74" t="n">
-        <v>11.88999999999997</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K74" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3366,30 +3100,29 @@
         <v>11.9</v>
       </c>
       <c r="F75" t="n">
-        <v>37869.7999</v>
+        <v>1379.5126</v>
       </c>
       <c r="G75" t="n">
-        <v>11.88666666666668</v>
+        <v>-1286039.833829905</v>
       </c>
       <c r="H75" t="n">
-        <v>11.88666666666663</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K75" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,42 +3131,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F76" t="n">
-        <v>12</v>
+        <v>43011.5571</v>
       </c>
       <c r="G76" t="n">
-        <v>11.89333333333334</v>
+        <v>-1329051.390929905</v>
       </c>
       <c r="H76" t="n">
-        <v>11.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,42 +3174,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C77" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D77" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E77" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F77" t="n">
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>11.90000000000001</v>
+        <v>-1329051.390929905</v>
       </c>
       <c r="H77" t="n">
-        <v>11.87999999999997</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,30 +3227,29 @@
         <v>11.9</v>
       </c>
       <c r="F78" t="n">
-        <v>68607.5107</v>
+        <v>2500</v>
       </c>
       <c r="G78" t="n">
-        <v>11.90000000000001</v>
+        <v>-1326551.390929905</v>
       </c>
       <c r="H78" t="n">
-        <v>11.87666666666663</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,42 +3258,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C79" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D79" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E79" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F79" t="n">
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>11.90000000000001</v>
+        <v>-1326561.390929905</v>
       </c>
       <c r="H79" t="n">
-        <v>11.87166666666663</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,42 +3299,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C80" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D80" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E80" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F80" t="n">
-        <v>165232.1497</v>
+        <v>61135.5683</v>
       </c>
       <c r="G80" t="n">
-        <v>11.89333333333334</v>
+        <v>-1265425.822629905</v>
       </c>
       <c r="H80" t="n">
-        <v>11.86999999999996</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,42 +3340,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C81" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D81" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F81" t="n">
-        <v>164695.2194</v>
+        <v>6345.7876</v>
       </c>
       <c r="G81" t="n">
-        <v>11.91333333333334</v>
+        <v>-1265425.822629905</v>
       </c>
       <c r="H81" t="n">
-        <v>11.87166666666663</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3662,42 +3381,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D82" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F82" t="n">
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>11.92000000000001</v>
+        <v>-1265435.822629905</v>
       </c>
       <c r="H82" t="n">
-        <v>11.87166666666663</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,42 +3422,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F83" t="n">
-        <v>8437.2474</v>
+        <v>1368.6728</v>
       </c>
       <c r="G83" t="n">
-        <v>11.92000000000001</v>
+        <v>-1265435.822629905</v>
       </c>
       <c r="H83" t="n">
-        <v>11.86999999999996</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,42 +3463,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C84" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D84" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E84" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F84" t="n">
-        <v>15127.2509</v>
+        <v>4705.3781</v>
       </c>
       <c r="G84" t="n">
-        <v>11.92666666666667</v>
+        <v>-1260730.444529905</v>
       </c>
       <c r="H84" t="n">
-        <v>11.87166666666663</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,42 +3504,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C85" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D85" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E85" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F85" t="n">
-        <v>225953.1906</v>
+        <v>3140</v>
       </c>
       <c r="G85" t="n">
-        <v>11.95333333333334</v>
+        <v>-1263870.444529905</v>
       </c>
       <c r="H85" t="n">
-        <v>11.87499999999996</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,42 +3545,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C86" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D86" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E86" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F86" t="n">
-        <v>1421.5574</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>11.98</v>
+        <v>-1263880.444529905</v>
       </c>
       <c r="H86" t="n">
-        <v>11.87999999999997</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,42 +3586,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C87" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D87" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E87" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F87" t="n">
-        <v>35583.8808</v>
+        <v>11</v>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>-1263869.444529905</v>
       </c>
       <c r="H87" t="n">
-        <v>11.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,42 +3627,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C88" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D88" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E88" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F88" t="n">
-        <v>40983.6065</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>12.01333333333333</v>
+        <v>-1263879.444529905</v>
       </c>
       <c r="H88" t="n">
-        <v>11.8883333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,42 +3668,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C89" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D89" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E89" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F89" t="n">
-        <v>7883.1252</v>
+        <v>6569.8065</v>
       </c>
       <c r="G89" t="n">
-        <v>12.03333333333333</v>
+        <v>-1257309.638029905</v>
       </c>
       <c r="H89" t="n">
-        <v>11.8933333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,42 +3709,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C90" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D90" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E90" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F90" t="n">
-        <v>50</v>
+        <v>29569.1604</v>
       </c>
       <c r="G90" t="n">
-        <v>12.05333333333333</v>
+        <v>-1257309.638029905</v>
       </c>
       <c r="H90" t="n">
-        <v>11.8983333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,42 +3750,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C91" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D91" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E91" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>12.06666666666666</v>
+        <v>-1257319.638029905</v>
       </c>
       <c r="H91" t="n">
-        <v>11.90499999999997</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,42 +3791,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C92" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D92" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E92" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F92" t="n">
-        <v>2600</v>
+        <v>48146.8396</v>
       </c>
       <c r="G92" t="n">
-        <v>12.08666666666666</v>
+        <v>-1209172.798429905</v>
       </c>
       <c r="H92" t="n">
-        <v>11.9133333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,42 +3832,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C93" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D93" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E93" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>3367.5764</v>
       </c>
       <c r="G93" t="n">
-        <v>12.10666666666666</v>
+        <v>-1212540.374829905</v>
       </c>
       <c r="H93" t="n">
-        <v>11.9183333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,42 +3873,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>3361.3444</v>
+        <v>7098.375</v>
       </c>
       <c r="G94" t="n">
-        <v>12.13333333333333</v>
+        <v>-1205441.999829905</v>
       </c>
       <c r="H94" t="n">
-        <v>11.92499999999997</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,42 +3914,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C95" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D95" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E95" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F95" t="n">
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>12.15333333333333</v>
+        <v>-1205451.999829905</v>
       </c>
       <c r="H95" t="n">
-        <v>11.92666666666664</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,42 +3955,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C96" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D96" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E96" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F96" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G96" t="n">
-        <v>12.15999999999999</v>
+        <v>-1155451.999829905</v>
       </c>
       <c r="H96" t="n">
-        <v>11.93166666666664</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,42 +3996,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D97" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F97" t="n">
-        <v>45995.1533</v>
+        <v>168.175</v>
       </c>
       <c r="G97" t="n">
-        <v>12.16666666666666</v>
+        <v>-1155283.824829905</v>
       </c>
       <c r="H97" t="n">
-        <v>11.93499999999998</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,42 +4037,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="C98" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D98" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="F98" t="n">
-        <v>241.9354</v>
+        <v>34468.4708</v>
       </c>
       <c r="G98" t="n">
-        <v>12.19333333333333</v>
+        <v>-1155283.824829905</v>
       </c>
       <c r="H98" t="n">
-        <v>11.94333333333331</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,43 +4078,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C99" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D99" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E99" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>8143.7121</v>
       </c>
       <c r="G99" t="n">
-        <v>12.19333333333333</v>
+        <v>-1163427.536929905</v>
       </c>
       <c r="H99" t="n">
-        <v>11.94666666666664</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>1.011806722689076</v>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4454,36 +4119,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C100" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D100" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E100" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F100" t="n">
-        <v>174518.1842</v>
+        <v>5000.0001</v>
       </c>
       <c r="G100" t="n">
-        <v>12.18666666666666</v>
+        <v>-1163427.536929905</v>
       </c>
       <c r="H100" t="n">
-        <v>11.94999999999998</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,36 +4160,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C101" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D101" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E101" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>4500</v>
       </c>
       <c r="G101" t="n">
-        <v>12.19333333333333</v>
+        <v>-1163427.536929905</v>
       </c>
       <c r="H101" t="n">
-        <v>11.95666666666664</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,36 +4201,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E102" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>253.4166</v>
       </c>
       <c r="G102" t="n">
-        <v>12.19333333333333</v>
+        <v>-1163174.120329905</v>
       </c>
       <c r="H102" t="n">
-        <v>11.95999999999998</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,36 +4242,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C103" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D103" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E103" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F103" t="n">
-        <v>40890.395</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>12.18666666666666</v>
+        <v>-1163184.120329905</v>
       </c>
       <c r="H103" t="n">
-        <v>11.96499999999998</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,36 +4283,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C104" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D104" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E104" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F104" t="n">
-        <v>6147.6229</v>
+        <v>37869.7999</v>
       </c>
       <c r="G104" t="n">
-        <v>12.18666666666666</v>
+        <v>-1163184.120329905</v>
       </c>
       <c r="H104" t="n">
-        <v>11.97166666666665</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4644,36 +4324,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F105" t="n">
-        <v>91124.0831</v>
+        <v>12</v>
       </c>
       <c r="G105" t="n">
-        <v>12.18</v>
+        <v>-1163172.120329905</v>
       </c>
       <c r="H105" t="n">
-        <v>11.97833333333331</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,36 +4365,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C106" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D106" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E106" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F106" t="n">
-        <v>810</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>12.17333333333333</v>
+        <v>-1163182.120329905</v>
       </c>
       <c r="H106" t="n">
-        <v>11.98166666666665</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,36 +4406,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E107" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>68607.5107</v>
       </c>
       <c r="G107" t="n">
-        <v>12.16</v>
+        <v>-1163182.120329905</v>
       </c>
       <c r="H107" t="n">
-        <v>11.98666666666665</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,36 +4447,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E108" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F108" t="n">
-        <v>63891.157</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>12.15333333333333</v>
+        <v>-1163192.120329905</v>
       </c>
       <c r="H108" t="n">
-        <v>11.99333333333331</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4796,36 +4488,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D109" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E109" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>165232.1497</v>
       </c>
       <c r="G109" t="n">
-        <v>12.14</v>
+        <v>-997959.9706299047</v>
       </c>
       <c r="H109" t="n">
-        <v>11.99499999999998</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,7 +4529,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
         <v>12.1</v>
@@ -4843,27 +4538,30 @@
         <v>12.1</v>
       </c>
       <c r="E110" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F110" t="n">
-        <v>2783.6387</v>
+        <v>164695.2194</v>
       </c>
       <c r="G110" t="n">
-        <v>12.13333333333333</v>
+        <v>-833264.7512299046</v>
       </c>
       <c r="H110" t="n">
-        <v>12.00166666666665</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4872,36 +4570,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D111" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E111" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>12.13333333333333</v>
+        <v>-833274.7512299046</v>
       </c>
       <c r="H111" t="n">
-        <v>12.00833333333332</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,36 +4611,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F112" t="n">
-        <v>4658.5901</v>
+        <v>8437.2474</v>
       </c>
       <c r="G112" t="n">
-        <v>12.14</v>
+        <v>-833274.7512299046</v>
       </c>
       <c r="H112" t="n">
-        <v>12.01499999999998</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,36 +4652,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C113" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D113" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E113" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F113" t="n">
-        <v>16393.4426</v>
+        <v>15127.2509</v>
       </c>
       <c r="G113" t="n">
-        <v>12.12666666666666</v>
+        <v>-818147.5003299046</v>
       </c>
       <c r="H113" t="n">
-        <v>12.02333333333332</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,36 +4693,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E114" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>225953.1906</v>
       </c>
       <c r="G114" t="n">
-        <v>12.12666666666666</v>
+        <v>-592194.3097299046</v>
       </c>
       <c r="H114" t="n">
-        <v>12.02999999999998</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,36 +4734,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C115" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D115" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E115" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F115" t="n">
-        <v>11</v>
+        <v>1421.5574</v>
       </c>
       <c r="G115" t="n">
-        <v>12.14</v>
+        <v>-592194.3097299046</v>
       </c>
       <c r="H115" t="n">
-        <v>12.03666666666665</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,36 +4775,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C116" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D116" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E116" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F116" t="n">
-        <v>29440.4918</v>
+        <v>35583.8808</v>
       </c>
       <c r="G116" t="n">
-        <v>12.13333333333333</v>
+        <v>-627778.1905299047</v>
       </c>
       <c r="H116" t="n">
-        <v>12.04333333333332</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,36 +4816,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E117" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>40983.6065</v>
       </c>
       <c r="G117" t="n">
-        <v>12.13333333333333</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H117" t="n">
-        <v>12.04999999999998</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,24 +4869,27 @@
         <v>12.2</v>
       </c>
       <c r="F118" t="n">
-        <v>11</v>
+        <v>7883.1252</v>
       </c>
       <c r="G118" t="n">
-        <v>12.14</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H118" t="n">
-        <v>12.05499999999998</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,24 +4910,27 @@
         <v>12.2</v>
       </c>
       <c r="F119" t="n">
-        <v>49175.4019</v>
+        <v>50</v>
       </c>
       <c r="G119" t="n">
-        <v>12.14</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H119" t="n">
-        <v>12.06166666666665</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5217,33 +4942,36 @@
         <v>12.3</v>
       </c>
       <c r="C120" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D120" t="n">
         <v>12.3</v>
       </c>
       <c r="E120" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F120" t="n">
-        <v>3889.2804</v>
+        <v>22</v>
       </c>
       <c r="G120" t="n">
-        <v>12.15333333333333</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H120" t="n">
-        <v>12.06833333333332</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,36 +4980,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C121" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D121" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E121" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F121" t="n">
-        <v>23626.275</v>
+        <v>2600</v>
       </c>
       <c r="G121" t="n">
-        <v>12.16666666666666</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H121" t="n">
-        <v>12.07499999999999</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,36 +5021,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C122" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D122" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E122" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F122" t="n">
-        <v>121224.7617</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>12.18666666666667</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H122" t="n">
-        <v>12.08333333333332</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,36 +5062,1186 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3361.3444</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>45995.1533</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-632789.7373299047</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>12.4</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C127" t="n">
         <v>12.4</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D127" t="n">
         <v>12.4</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E127" t="n">
         <v>12.4</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F127" t="n">
+        <v>241.9354</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-632547.8019299047</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>20</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-632567.8019299047</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>174518.1842</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-632567.8019299047</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>11</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-632556.8019299047</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-632566.8019299047</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>40890.395</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-632566.8019299047</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6147.6229</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-626419.1790299048</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>91124.0831</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-717543.2621299048</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>810</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-717543.2621299048</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-717553.2621299048</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>63891.157</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-653662.1051299048</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-653672.1051299048</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2783.6387</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-650888.4664299048</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>118</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-650770.4664299048</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4658.5901</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-650770.4664299048</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16393.4426</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-650770.4664299048</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-650780.4664299048</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>11</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-650769.4664299048</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29440.4918</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-680209.9582299048</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1.020210084033613</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-680219.9582299048</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-680208.9582299048</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>49175.4019</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-680208.9582299048</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3889.2804</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-676319.6778299047</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>23626.275</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-676319.6778299047</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>121224.7617</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-676319.6778299047</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F152" t="n">
         <v>8064.516</v>
       </c>
-      <c r="G123" t="n">
-        <v>12.20666666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>12.09166666666665</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="G152" t="n">
+        <v>-668255.1618299048</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F2" t="n">
-        <v>33291.8302</v>
+        <v>22380</v>
       </c>
       <c r="G2" t="n">
-        <v>-917910.6925863249</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D3" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>32050.1639</v>
       </c>
       <c r="G3" t="n">
-        <v>-917910.6925863249</v>
+        <v>-973496.5346497397</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E4" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>29105.7109</v>
+        <v>7460</v>
       </c>
       <c r="G4" t="n">
-        <v>-917910.6925863249</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D5" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E5" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>46068.376</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>-963979.0685863249</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C6" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D6" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E6" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1591.0946</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-962387.973986325</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>166278.0193</v>
+        <v>17743.2151</v>
       </c>
       <c r="G7" t="n">
-        <v>-962387.973986325</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>26560.3316</v>
+        <v>134290.2003</v>
       </c>
       <c r="G8" t="n">
-        <v>-988948.305586325</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>16067.6852</v>
       </c>
       <c r="G9" t="n">
-        <v>-988937.305586325</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>7862.2314</v>
       </c>
       <c r="G10" t="n">
-        <v>-988937.305586325</v>
+        <v>-990837.5183497397</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>48967.533</v>
+        <v>16220.9999</v>
       </c>
       <c r="G11" t="n">
-        <v>-1037904.838586325</v>
+        <v>-1007058.51824974</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>50011</v>
+        <v>710.2800999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-987893.8385863251</v>
+        <v>-1007058.51824974</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C13" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D13" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E13" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F13" t="n">
-        <v>2579.5656</v>
+        <v>68694.39870000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-987893.8385863251</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F14" t="n">
-        <v>6175.4385</v>
+        <v>278533.4683</v>
       </c>
       <c r="G14" t="n">
-        <v>-987893.8385863251</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,13 +899,14 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C15" t="n">
         <v>11.9</v>
@@ -897,26 +915,31 @@
         <v>11.9</v>
       </c>
       <c r="E15" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F15" t="n">
-        <v>61078.2608</v>
+        <v>3847.7764</v>
       </c>
       <c r="G15" t="n">
-        <v>-926815.577786325</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -935,128 +958,160 @@
         <v>11.9</v>
       </c>
       <c r="F16" t="n">
-        <v>8800</v>
+        <v>42925.9996</v>
       </c>
       <c r="G16" t="n">
-        <v>-926815.577786325</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E17" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F17" t="n">
-        <v>616834.4431</v>
+        <v>2970</v>
       </c>
       <c r="G17" t="n">
-        <v>-1543650.020886325</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F18" t="n">
-        <v>30074.7899</v>
+        <v>135481.0847</v>
       </c>
       <c r="G18" t="n">
-        <v>-1513575.230986325</v>
+        <v>-1211234.00164974</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C19" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D19" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E19" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F19" t="n">
-        <v>5159.8927</v>
+        <v>64518</v>
       </c>
       <c r="G19" t="n">
-        <v>-1513575.230986325</v>
+        <v>-1275752.00164974</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1075,115 +1130,142 @@
         <v>11.9</v>
       </c>
       <c r="F20" t="n">
-        <v>31858.266</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>-1513575.230986325</v>
+        <v>-1275741.00164974</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C21" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D21" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E21" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F21" t="n">
-        <v>53788.003</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-1513575.230986325</v>
+        <v>-1275751.00164974</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E22" t="n">
         <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>33232.6409</v>
+        <v>24985.97771983471</v>
       </c>
       <c r="G22" t="n">
-        <v>-1513575.230986325</v>
+        <v>-1250765.023929905</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F23" t="n">
-        <v>6813.8909</v>
+        <v>9390</v>
       </c>
       <c r="G23" t="n">
-        <v>-1506761.340086325</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,11 +1274,18 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1215,10 +1304,10 @@
         <v>11.9</v>
       </c>
       <c r="F24" t="n">
-        <v>8800</v>
+        <v>9390</v>
       </c>
       <c r="G24" t="n">
-        <v>-1515561.340086325</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,11 +1316,18 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1241,19 +1337,19 @@
         <v>11.9</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E25" t="n">
         <v>11.9</v>
       </c>
       <c r="F25" t="n">
-        <v>49903.9436</v>
+        <v>3070</v>
       </c>
       <c r="G25" t="n">
-        <v>-1465657.396486325</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1358,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F26" t="n">
-        <v>42919.405</v>
+        <v>1285.9663</v>
       </c>
       <c r="G26" t="n">
-        <v>-1465657.396486325</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1400,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>26855.5</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-1465657.396486325</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1442,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G28" t="n">
-        <v>-1465657.396486325</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,11 +1484,18 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1390,10 +1514,10 @@
         <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>45689.7766</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>-1511347.173086325</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1526,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C30" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D30" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E30" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F30" t="n">
-        <v>50000</v>
+        <v>25966.4719</v>
       </c>
       <c r="G30" t="n">
-        <v>-1511347.173086325</v>
+        <v>-1286121.495829905</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1568,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C31" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D31" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F31" t="n">
-        <v>538672.1010365854</v>
+        <v>702.1494</v>
       </c>
       <c r="G31" t="n">
-        <v>-972675.0720497398</v>
+        <v>-1286121.495829905</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1610,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C32" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D32" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E32" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F32" t="n">
-        <v>8800</v>
+        <v>1297.8506</v>
       </c>
       <c r="G32" t="n">
-        <v>-981475.0720497398</v>
+        <v>-1287419.346429905</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1652,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>8800</v>
+        <v>1379.5126</v>
       </c>
       <c r="G33" t="n">
-        <v>-981475.0720497398</v>
+        <v>-1286039.833829905</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1694,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C34" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D34" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E34" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F34" t="n">
-        <v>3887.272727272727</v>
+        <v>43011.5571</v>
       </c>
       <c r="G34" t="n">
-        <v>-981475.0720497398</v>
+        <v>-1329051.390929905</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1736,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C35" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D35" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E35" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F35" t="n">
-        <v>40413.41507272727</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-981475.0720497398</v>
+        <v>-1329051.390929905</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,68 +1778,84 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C36" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D36" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E36" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>-981465.0720497398</v>
+        <v>-1326551.390929905</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C37" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D37" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E37" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F37" t="n">
-        <v>24081.6265</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1326561.390929905</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1864,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D38" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E38" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F38" t="n">
-        <v>18060</v>
+        <v>61135.5683</v>
       </c>
       <c r="G38" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1265425.822629905</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1906,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C39" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D39" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E39" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F39" t="n">
-        <v>18060</v>
+        <v>6345.7876</v>
       </c>
       <c r="G39" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1265425.822629905</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1948,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C40" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D40" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E40" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F40" t="n">
-        <v>6020</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1265435.822629905</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +1990,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C41" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D41" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E41" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F41" t="n">
-        <v>8886.358</v>
+        <v>1368.6728</v>
       </c>
       <c r="G41" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1265435.822629905</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2032,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F42" t="n">
-        <v>22380</v>
+        <v>4705.3781</v>
       </c>
       <c r="G42" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1260730.444529905</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2074,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C43" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D43" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E43" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F43" t="n">
-        <v>22380</v>
+        <v>3140</v>
       </c>
       <c r="G43" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1263870.444529905</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2116,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="C44" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D44" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="E44" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F44" t="n">
-        <v>22380</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-1005546.69854974</v>
+        <v>-1263880.444529905</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2158,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C45" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D45" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E45" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F45" t="n">
-        <v>32050.1639</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>-973496.5346497397</v>
+        <v>-1263869.444529905</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2200,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C46" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D46" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E46" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F46" t="n">
-        <v>7460</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-980956.5346497397</v>
+        <v>-1263879.444529905</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2242,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C47" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D47" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E47" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>6569.8065</v>
       </c>
       <c r="G47" t="n">
-        <v>-980956.5346497397</v>
+        <v>-1257309.638029905</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2284,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C48" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D48" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E48" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>29569.1604</v>
       </c>
       <c r="G48" t="n">
-        <v>-980956.5346497397</v>
+        <v>-1257309.638029905</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2326,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F49" t="n">
-        <v>17743.2151</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-998699.7497497398</v>
+        <v>-1257319.638029905</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2368,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F50" t="n">
-        <v>134290.2003</v>
+        <v>48146.8396</v>
       </c>
       <c r="G50" t="n">
-        <v>-998699.7497497398</v>
+        <v>-1209172.798429905</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2410,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>16067.6852</v>
+        <v>3367.5764</v>
       </c>
       <c r="G51" t="n">
-        <v>-998699.7497497398</v>
+        <v>-1212540.374829905</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2452,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>7862.2314</v>
+        <v>7098.375</v>
       </c>
       <c r="G52" t="n">
-        <v>-990837.5183497397</v>
+        <v>-1205441.999829905</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2494,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D53" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F53" t="n">
-        <v>16220.9999</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>-1007058.51824974</v>
+        <v>-1205451.999829905</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2536,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F54" t="n">
-        <v>710.2800999999999</v>
+        <v>50000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1007058.51824974</v>
+        <v>-1155451.999829905</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2578,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>68694.39870000001</v>
+        <v>168.175</v>
       </c>
       <c r="G55" t="n">
-        <v>-1075752.91694974</v>
+        <v>-1155283.824829905</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2620,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C56" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F56" t="n">
-        <v>278533.4683</v>
+        <v>34468.4708</v>
       </c>
       <c r="G56" t="n">
-        <v>-1075752.91694974</v>
+        <v>-1155283.824829905</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2662,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C57" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D57" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E57" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F57" t="n">
-        <v>3847.7764</v>
+        <v>8143.7121</v>
       </c>
       <c r="G57" t="n">
-        <v>-1075752.91694974</v>
+        <v>-1163427.536929905</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2704,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C58" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D58" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E58" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F58" t="n">
-        <v>42925.9996</v>
+        <v>5000.0001</v>
       </c>
       <c r="G58" t="n">
-        <v>-1075752.91694974</v>
+        <v>-1163427.536929905</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,72 +2746,82 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E59" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F59" t="n">
-        <v>2970</v>
+        <v>4500</v>
       </c>
       <c r="G59" t="n">
-        <v>-1075752.91694974</v>
+        <v>-1163427.536929905</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>11.9</v>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>135481.0847</v>
+        <v>253.4166</v>
       </c>
       <c r="G60" t="n">
-        <v>-1211234.00164974</v>
+        <v>-1163174.120329905</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2496,34 +2835,35 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C61" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D61" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E61" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F61" t="n">
-        <v>64518</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-1275752.00164974</v>
+        <v>-1163184.120329905</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2537,12 +2877,13 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2561,20 +2902,18 @@
         <v>11.9</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>37869.7999</v>
       </c>
       <c r="G62" t="n">
-        <v>-1275741.00164974</v>
+        <v>-1163184.120329905</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>11.9</v>
       </c>
@@ -2586,28 +2925,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>-1275751.00164974</v>
+        <v>-1163172.120329905</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2627,6 +2967,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2636,19 +2977,19 @@
         <v>11.9</v>
       </c>
       <c r="C64" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D64" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E64" t="n">
         <v>11.9</v>
       </c>
       <c r="F64" t="n">
-        <v>24985.97771983471</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-1250765.023929905</v>
+        <v>-1163182.120329905</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2668,6 +3009,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2686,10 +3028,10 @@
         <v>11.9</v>
       </c>
       <c r="F65" t="n">
-        <v>9390</v>
+        <v>68607.5107</v>
       </c>
       <c r="G65" t="n">
-        <v>-1260155.023929905</v>
+        <v>-1163182.120329905</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2709,28 +3051,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E66" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F66" t="n">
-        <v>9390</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-1260155.023929905</v>
+        <v>-1163192.120329905</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2750,6 +3093,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2768,10 +3112,10 @@
         <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>3070</v>
+        <v>165232.1497</v>
       </c>
       <c r="G67" t="n">
-        <v>-1260155.023929905</v>
+        <v>-997959.9706299047</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2791,28 +3135,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D68" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E68" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F68" t="n">
-        <v>1285.9663</v>
+        <v>164695.2194</v>
       </c>
       <c r="G68" t="n">
-        <v>-1260155.023929905</v>
+        <v>-833264.7512299046</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2832,28 +3177,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-1260155.023929905</v>
+        <v>-833274.7512299046</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2873,28 +3219,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C70" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F70" t="n">
-        <v>60</v>
+        <v>8437.2474</v>
       </c>
       <c r="G70" t="n">
-        <v>-1260155.023929905</v>
+        <v>-833274.7512299046</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2914,28 +3261,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C71" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D71" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E71" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>15127.2509</v>
       </c>
       <c r="G71" t="n">
-        <v>-1260155.023929905</v>
+        <v>-818147.5003299046</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2955,28 +3303,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C72" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D72" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E72" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F72" t="n">
-        <v>25966.4719</v>
+        <v>225953.1906</v>
       </c>
       <c r="G72" t="n">
-        <v>-1286121.495829905</v>
+        <v>-592194.3097299046</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2996,38 +3345,37 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C73" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D73" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E73" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F73" t="n">
-        <v>702.1494</v>
+        <v>1421.5574</v>
       </c>
       <c r="G73" t="n">
-        <v>-1286121.495829905</v>
+        <v>-592194.3097299046</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>11.9</v>
       </c>
@@ -3039,38 +3387,37 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C74" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D74" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E74" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F74" t="n">
-        <v>1297.8506</v>
+        <v>35583.8808</v>
       </c>
       <c r="G74" t="n">
-        <v>-1287419.346429905</v>
+        <v>-627778.1905299047</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>11.9</v>
       </c>
@@ -3082,38 +3429,37 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C75" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D75" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E75" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1379.5126</v>
+        <v>40983.6065</v>
       </c>
       <c r="G75" t="n">
-        <v>-1286039.833829905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>11.9</v>
       </c>
@@ -3125,38 +3471,37 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C76" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D76" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E76" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="F76" t="n">
-        <v>43011.5571</v>
+        <v>7883.1252</v>
       </c>
       <c r="G76" t="n">
-        <v>-1329051.390929905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>11.9</v>
       </c>
@@ -3168,28 +3513,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C77" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G77" t="n">
-        <v>-1329051.390929905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3209,38 +3555,37 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="C78" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D78" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="E78" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F78" t="n">
-        <v>2500</v>
+        <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>-1326551.390929905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>11.9</v>
       </c>
@@ -3252,28 +3597,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C79" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D79" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E79" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>2600</v>
       </c>
       <c r="G79" t="n">
-        <v>-1326561.390929905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3293,28 +3639,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C80" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D80" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E80" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F80" t="n">
-        <v>61135.5683</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-1265425.822629905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3334,28 +3681,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C81" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D81" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E81" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F81" t="n">
-        <v>6345.7876</v>
+        <v>3361.3444</v>
       </c>
       <c r="G81" t="n">
-        <v>-1265425.822629905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3375,28 +3723,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C82" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D82" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E82" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="F82" t="n">
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>-1265435.822629905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3416,28 +3765,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C83" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D83" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E83" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1368.6728</v>
+        <v>30000</v>
       </c>
       <c r="G83" t="n">
-        <v>-1265435.822629905</v>
+        <v>-586794.5840299047</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3457,28 +3807,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C84" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D84" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E84" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F84" t="n">
-        <v>4705.3781</v>
+        <v>45995.1533</v>
       </c>
       <c r="G84" t="n">
-        <v>-1260730.444529905</v>
+        <v>-632789.7373299047</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3498,28 +3849,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="C85" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="D85" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="E85" t="n">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="F85" t="n">
-        <v>3140</v>
+        <v>241.9354</v>
       </c>
       <c r="G85" t="n">
-        <v>-1263870.444529905</v>
+        <v>-632547.8019299047</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3539,34 +3891,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C86" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D86" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E86" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>-1263880.444529905</v>
+        <v>-632567.8019299047</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
@@ -3574,116 +3927,107 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
-      </c>
+        <v>1.011806722689076</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C87" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D87" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E87" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>174518.1842</v>
       </c>
       <c r="G87" t="n">
-        <v>-1263869.444529905</v>
+        <v>-632567.8019299047</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="C88" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="D88" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="E88" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>-1263879.444529905</v>
+        <v>-632556.8019299047</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C89" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D89" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E89" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F89" t="n">
-        <v>6569.8065</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-1257309.638029905</v>
+        <v>-632566.8019299047</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3692,39 +4036,34 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C90" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D90" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E90" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F90" t="n">
-        <v>29569.1604</v>
+        <v>40890.395</v>
       </c>
       <c r="G90" t="n">
-        <v>-1257309.638029905</v>
+        <v>-632566.8019299047</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3733,39 +4072,34 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C91" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D91" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E91" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>6147.6229</v>
       </c>
       <c r="G91" t="n">
-        <v>-1257319.638029905</v>
+        <v>-626419.1790299048</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3774,39 +4108,34 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C92" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D92" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E92" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F92" t="n">
-        <v>48146.8396</v>
+        <v>91124.0831</v>
       </c>
       <c r="G92" t="n">
-        <v>-1209172.798429905</v>
+        <v>-717543.2621299048</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3815,39 +4144,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C93" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D93" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E93" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F93" t="n">
-        <v>3367.5764</v>
+        <v>810</v>
       </c>
       <c r="G93" t="n">
-        <v>-1212540.374829905</v>
+        <v>-717543.2621299048</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3856,17 +4180,12 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3885,10 +4204,10 @@
         <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>7098.375</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-1205441.999829905</v>
+        <v>-717553.2621299048</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3897,39 +4216,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C95" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D95" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E95" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>63891.157</v>
       </c>
       <c r="G95" t="n">
-        <v>-1205451.999829905</v>
+        <v>-653662.1051299048</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3938,39 +4252,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>-1155451.999829905</v>
+        <v>-653672.1051299048</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3979,39 +4288,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D97" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F97" t="n">
-        <v>168.175</v>
+        <v>2783.6387</v>
       </c>
       <c r="G97" t="n">
-        <v>-1155283.824829905</v>
+        <v>-650888.4664299048</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4020,39 +4324,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E98" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F98" t="n">
-        <v>34468.4708</v>
+        <v>118</v>
       </c>
       <c r="G98" t="n">
-        <v>-1155283.824829905</v>
+        <v>-650770.4664299048</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4061,39 +4360,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C99" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D99" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E99" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F99" t="n">
-        <v>8143.7121</v>
+        <v>4658.5901</v>
       </c>
       <c r="G99" t="n">
-        <v>-1163427.536929905</v>
+        <v>-650770.4664299048</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4102,39 +4396,34 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="C100" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="D100" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="E100" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="F100" t="n">
-        <v>5000.0001</v>
+        <v>16393.4426</v>
       </c>
       <c r="G100" t="n">
-        <v>-1163427.536929905</v>
+        <v>-650770.4664299048</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4143,39 +4432,34 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C101" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D101" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E101" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F101" t="n">
-        <v>4500</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-1163427.536929905</v>
+        <v>-650780.4664299048</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4184,39 +4468,34 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="D102" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="E102" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="F102" t="n">
-        <v>253.4166</v>
+        <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>-1163174.120329905</v>
+        <v>-650769.4664299048</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4225,39 +4504,34 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C103" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D103" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E103" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>29440.4918</v>
       </c>
       <c r="G103" t="n">
-        <v>-1163184.120329905</v>
+        <v>-680209.9582299048</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4266,39 +4540,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C104" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D104" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E104" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F104" t="n">
-        <v>37869.7999</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-1163184.120329905</v>
+        <v>-680219.9582299048</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4307,39 +4576,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="D105" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="E105" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="F105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>-1163172.120329905</v>
+        <v>-680208.9582299048</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4348,39 +4612,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C106" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D106" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E106" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>49175.4019</v>
       </c>
       <c r="G106" t="n">
-        <v>-1163182.120329905</v>
+        <v>-680208.9582299048</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4389,39 +4648,34 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="C107" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="D107" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="E107" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="F107" t="n">
-        <v>68607.5107</v>
+        <v>3889.2804</v>
       </c>
       <c r="G107" t="n">
-        <v>-1163182.120329905</v>
+        <v>-676319.6778299047</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4430,1820 +4684,120 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="C108" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="D108" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="E108" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>23626.275</v>
       </c>
       <c r="G108" t="n">
-        <v>-1163192.120329905</v>
+        <v>-676319.6778299047</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="C109" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="D109" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="E109" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="F109" t="n">
-        <v>165232.1497</v>
+        <v>121224.7617</v>
       </c>
       <c r="G109" t="n">
-        <v>-997959.9706299047</v>
+        <v>-676319.6778299047</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="C110" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D110" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="F110" t="n">
-        <v>164695.2194</v>
+        <v>8064.516</v>
       </c>
       <c r="G110" t="n">
-        <v>-833264.7512299046</v>
+        <v>-668255.1618299048</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>12</v>
-      </c>
-      <c r="C111" t="n">
-        <v>12</v>
-      </c>
-      <c r="D111" t="n">
-        <v>12</v>
-      </c>
-      <c r="E111" t="n">
-        <v>12</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-833274.7512299046</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12</v>
-      </c>
-      <c r="C112" t="n">
-        <v>12</v>
-      </c>
-      <c r="D112" t="n">
-        <v>12</v>
-      </c>
-      <c r="E112" t="n">
-        <v>12</v>
-      </c>
-      <c r="F112" t="n">
-        <v>8437.2474</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-833274.7512299046</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E113" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>15127.2509</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-818147.5003299046</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>225953.1906</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-592194.3097299046</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1421.5574</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-592194.3097299046</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>35583.8808</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-627778.1905299047</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>40983.6065</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>7883.1252</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>50</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>22</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2600</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>10</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3361.3444</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>10</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F125" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C126" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>45995.1533</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-632789.7373299047</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>241.9354</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-632547.8019299047</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>20</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-632567.8019299047</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>174518.1842</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-632567.8019299047</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>11</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-632556.8019299047</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-632566.8019299047</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>40890.395</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-632566.8019299047</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6147.6229</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-626419.1790299048</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>91124.0831</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-717543.2621299048</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>810</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-717543.2621299048</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-717553.2621299048</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>63891.157</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-653662.1051299048</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-653672.1051299048</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2783.6387</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-650888.4664299048</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>118</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-650770.4664299048</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4658.5901</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-650770.4664299048</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>16393.4426</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-650770.4664299048</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-650780.4664299048</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C144" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D144" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>11</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-650769.4664299048</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>29440.4918</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-680209.9582299048</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1.020210084033613</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-680219.9582299048</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>11</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-680208.9582299048</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>49175.4019</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-680208.9582299048</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C149" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D149" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E149" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3889.2804</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-676319.6778299047</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D150" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F150" t="n">
-        <v>23626.275</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-676319.6778299047</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D151" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E151" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F151" t="n">
-        <v>121224.7617</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-676319.6778299047</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>8064.516</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-668255.1618299048</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="C2" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="E2" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="F2" t="n">
-        <v>22380</v>
+        <v>3500.037</v>
       </c>
       <c r="G2" t="n">
-        <v>-1005546.69854974</v>
+        <v>-373877.3109863247</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="E3" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="F3" t="n">
-        <v>32050.1639</v>
+        <v>51</v>
       </c>
       <c r="G3" t="n">
-        <v>-973496.5346497397</v>
+        <v>-373826.3109863247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C4" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E4" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F4" t="n">
-        <v>7460</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>-980956.5346497397</v>
+        <v>-373826.3109863247</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1</v>
+        <v>11.6</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>226104.7867</v>
       </c>
       <c r="G5" t="n">
-        <v>-980956.5346497397</v>
+        <v>-373826.3109863247</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>-980956.5346497397</v>
+        <v>-373815.3109863247</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F7" t="n">
-        <v>17743.2151</v>
+        <v>279562.7366484375</v>
       </c>
       <c r="G7" t="n">
-        <v>-998699.7497497398</v>
+        <v>-373815.3109863247</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +667,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +682,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F8" t="n">
-        <v>134290.2003</v>
+        <v>110874.1</v>
       </c>
       <c r="G8" t="n">
-        <v>-998699.7497497398</v>
+        <v>-373815.3109863247</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +707,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +722,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F9" t="n">
-        <v>16067.6852</v>
+        <v>44466.1423</v>
       </c>
       <c r="G9" t="n">
-        <v>-998699.7497497398</v>
+        <v>-373815.3109863247</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +747,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +762,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C10" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F10" t="n">
-        <v>7862.2314</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>-990837.5183497397</v>
+        <v>-373793.3109863247</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +787,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -765,19 +805,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F11" t="n">
-        <v>16220.9999</v>
+        <v>310874.234</v>
       </c>
       <c r="G11" t="n">
-        <v>-1007058.51824974</v>
+        <v>-684667.5449863247</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +827,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +842,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F12" t="n">
-        <v>710.2800999999999</v>
+        <v>56526.1966</v>
       </c>
       <c r="G12" t="n">
-        <v>-1007058.51824974</v>
+        <v>-684667.5449863247</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +867,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +882,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C13" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D13" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E13" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F13" t="n">
-        <v>68694.39870000001</v>
+        <v>44688.5932</v>
       </c>
       <c r="G13" t="n">
-        <v>-1075752.91694974</v>
+        <v>-729356.1381863247</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +907,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +922,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C14" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D14" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E14" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F14" t="n">
-        <v>278533.4683</v>
+        <v>85169.4915</v>
       </c>
       <c r="G14" t="n">
-        <v>-1075752.91694974</v>
+        <v>-644186.6466863247</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +947,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,36 +962,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C15" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E15" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F15" t="n">
-        <v>3847.7764</v>
+        <v>172473.3638</v>
       </c>
       <c r="G15" t="n">
-        <v>-1075752.91694974</v>
+        <v>-816660.0104863248</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -946,38 +1002,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>42925.9996</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-1075752.91694974</v>
+        <v>-816650.0104863248</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -990,38 +1042,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>2970</v>
+        <v>41.6666</v>
       </c>
       <c r="G17" t="n">
-        <v>-1075752.91694974</v>
+        <v>-816650.0104863248</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1046,24 +1094,24 @@
         <v>11.8</v>
       </c>
       <c r="F18" t="n">
-        <v>135481.0847</v>
+        <v>1730.9516</v>
       </c>
       <c r="G18" t="n">
-        <v>-1211234.00164974</v>
+        <v>-818380.9620863248</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1077,35 +1125,31 @@
         <v>11.8</v>
       </c>
       <c r="C19" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D19" t="n">
         <v>11.8</v>
       </c>
       <c r="E19" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F19" t="n">
-        <v>64518</v>
+        <v>1601.6273</v>
       </c>
       <c r="G19" t="n">
-        <v>-1275752.00164974</v>
+        <v>-818380.9620863248</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1118,35 +1162,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
         <v>11.9</v>
       </c>
       <c r="D20" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
         <v>11.9</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>30473.0044</v>
       </c>
       <c r="G20" t="n">
-        <v>-1275741.00164974</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1162,35 +1202,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C21" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D21" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E21" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>1535.1968</v>
       </c>
       <c r="G21" t="n">
-        <v>-1275751.00164974</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1209,32 +1245,28 @@
         <v>11.9</v>
       </c>
       <c r="C22" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D22" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E22" t="n">
         <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>24985.97771983471</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>-1250765.023929905</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1262,10 +1294,10 @@
         <v>11.9</v>
       </c>
       <c r="F23" t="n">
-        <v>9390</v>
+        <v>10903.3613</v>
       </c>
       <c r="G23" t="n">
-        <v>-1260155.023929905</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1274,9 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1304,10 +1334,10 @@
         <v>11.9</v>
       </c>
       <c r="F24" t="n">
-        <v>9390</v>
+        <v>4201.6806</v>
       </c>
       <c r="G24" t="n">
-        <v>-1260155.023929905</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1316,9 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,10 +1374,10 @@
         <v>11.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3070</v>
+        <v>870.4169000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-1260155.023929905</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1358,9 +1386,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1388,10 +1414,10 @@
         <v>11.9</v>
       </c>
       <c r="F26" t="n">
-        <v>1285.9663</v>
+        <v>8401.6806</v>
       </c>
       <c r="G26" t="n">
-        <v>-1260155.023929905</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1400,9 +1426,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1430,10 +1454,10 @@
         <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>4201.6806</v>
       </c>
       <c r="G27" t="n">
-        <v>-1260155.023929905</v>
+        <v>-787907.9576863248</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1442,9 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1463,19 +1485,19 @@
         <v>11.9</v>
       </c>
       <c r="C28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D28" t="n">
         <v>11.9</v>
       </c>
       <c r="E28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>130002.7349</v>
       </c>
       <c r="G28" t="n">
-        <v>-1260155.023929905</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1484,9 +1506,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1502,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C29" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D29" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E29" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>203858.5101</v>
       </c>
       <c r="G29" t="n">
-        <v>-1260155.023929905</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1526,9 +1546,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1556,10 +1574,10 @@
         <v>11.8</v>
       </c>
       <c r="F30" t="n">
-        <v>25966.4719</v>
+        <v>4545.1592</v>
       </c>
       <c r="G30" t="n">
-        <v>-1286121.495829905</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1568,9 +1586,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1598,10 +1614,10 @@
         <v>11.8</v>
       </c>
       <c r="F31" t="n">
-        <v>702.1494</v>
+        <v>33291.8302</v>
       </c>
       <c r="G31" t="n">
-        <v>-1286121.495829905</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1610,9 +1626,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1628,22 +1642,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C32" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D32" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E32" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F32" t="n">
-        <v>1297.8506</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>-1287419.346429905</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1652,9 +1666,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1673,19 +1685,19 @@
         <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D33" t="n">
         <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F33" t="n">
-        <v>1379.5126</v>
+        <v>29105.7109</v>
       </c>
       <c r="G33" t="n">
-        <v>-1286039.833829905</v>
+        <v>-917910.6925863249</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1694,9 +1706,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1712,22 +1722,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C34" t="n">
         <v>11.7</v>
       </c>
       <c r="D34" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E34" t="n">
         <v>11.7</v>
       </c>
       <c r="F34" t="n">
-        <v>43011.5571</v>
+        <v>46068.376</v>
       </c>
       <c r="G34" t="n">
-        <v>-1329051.390929905</v>
+        <v>-963979.0685863249</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1736,9 +1746,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1754,22 +1762,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C35" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D35" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E35" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>1591.0946</v>
       </c>
       <c r="G35" t="n">
-        <v>-1329051.390929905</v>
+        <v>-962387.973986325</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1778,9 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1796,35 +1802,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C36" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D36" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E36" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F36" t="n">
-        <v>2500</v>
+        <v>166278.0193</v>
       </c>
       <c r="G36" t="n">
-        <v>-1326551.390929905</v>
+        <v>-962387.973986325</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,22 +1842,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C37" t="n">
         <v>11.7</v>
       </c>
       <c r="D37" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E37" t="n">
         <v>11.7</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>26560.3316</v>
       </c>
       <c r="G37" t="n">
-        <v>-1326561.390929905</v>
+        <v>-988948.305586325</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1864,9 +1866,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1894,10 +1894,10 @@
         <v>11.8</v>
       </c>
       <c r="F38" t="n">
-        <v>61135.5683</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>-1265425.822629905</v>
+        <v>-988937.305586325</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1906,9 +1906,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,10 +1934,10 @@
         <v>11.8</v>
       </c>
       <c r="F39" t="n">
-        <v>6345.7876</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1265425.822629905</v>
+        <v>-988937.305586325</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1948,9 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1978,10 +1974,10 @@
         <v>11.7</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>48967.533</v>
       </c>
       <c r="G40" t="n">
-        <v>-1265435.822629905</v>
+        <v>-1037904.838586325</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1990,9 +1986,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2008,22 +2002,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C41" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D41" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E41" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F41" t="n">
-        <v>1368.6728</v>
+        <v>50011</v>
       </c>
       <c r="G41" t="n">
-        <v>-1265435.822629905</v>
+        <v>-987893.8385863251</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2032,9 +2026,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,22 +2042,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C42" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D42" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E42" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F42" t="n">
-        <v>4705.3781</v>
+        <v>2579.5656</v>
       </c>
       <c r="G42" t="n">
-        <v>-1260730.444529905</v>
+        <v>-987893.8385863251</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2074,9 +2066,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,10 +2094,10 @@
         <v>11.8</v>
       </c>
       <c r="F43" t="n">
-        <v>3140</v>
+        <v>6175.4385</v>
       </c>
       <c r="G43" t="n">
-        <v>-1263870.444529905</v>
+        <v>-987893.8385863251</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2116,9 +2106,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2134,22 +2122,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C44" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E44" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>61078.2608</v>
       </c>
       <c r="G44" t="n">
-        <v>-1263880.444529905</v>
+        <v>-926815.577786325</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2158,9 +2146,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,10 +2174,10 @@
         <v>11.9</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>8800</v>
       </c>
       <c r="G45" t="n">
-        <v>-1263869.444529905</v>
+        <v>-926815.577786325</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2200,9 +2186,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2221,19 +2205,19 @@
         <v>11.8</v>
       </c>
       <c r="C46" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D46" t="n">
         <v>11.8</v>
       </c>
       <c r="E46" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>616834.4431</v>
       </c>
       <c r="G46" t="n">
-        <v>-1263879.444529905</v>
+        <v>-1543650.020886325</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2242,9 +2226,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2260,7 +2242,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C47" t="n">
         <v>11.9</v>
@@ -2269,13 +2251,13 @@
         <v>11.9</v>
       </c>
       <c r="E47" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F47" t="n">
-        <v>6569.8065</v>
+        <v>30074.7899</v>
       </c>
       <c r="G47" t="n">
-        <v>-1257309.638029905</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2284,9 +2266,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2314,10 +2294,10 @@
         <v>11.9</v>
       </c>
       <c r="F48" t="n">
-        <v>29569.1604</v>
+        <v>5159.8927</v>
       </c>
       <c r="G48" t="n">
-        <v>-1257309.638029905</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2326,9 +2306,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2344,22 +2322,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C49" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D49" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E49" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>31858.266</v>
       </c>
       <c r="G49" t="n">
-        <v>-1257319.638029905</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2368,9 +2346,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2386,7 +2362,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C50" t="n">
         <v>11.9</v>
@@ -2395,13 +2371,13 @@
         <v>11.9</v>
       </c>
       <c r="E50" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F50" t="n">
-        <v>48146.8396</v>
+        <v>53788.003</v>
       </c>
       <c r="G50" t="n">
-        <v>-1209172.798429905</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2410,9 +2386,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2428,22 +2402,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D51" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F51" t="n">
-        <v>3367.5764</v>
+        <v>33232.6409</v>
       </c>
       <c r="G51" t="n">
-        <v>-1212540.374829905</v>
+        <v>-1513575.230986325</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2452,9 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,10 +2454,10 @@
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>7098.375</v>
+        <v>6813.8909</v>
       </c>
       <c r="G52" t="n">
-        <v>-1205441.999829905</v>
+        <v>-1506761.340086325</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2494,9 +2466,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,22 +2482,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C53" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D53" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E53" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>8800</v>
       </c>
       <c r="G53" t="n">
-        <v>-1205451.999829905</v>
+        <v>-1515561.340086325</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2536,9 +2506,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,19 +2525,19 @@
         <v>11.9</v>
       </c>
       <c r="C54" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
         <v>11.9</v>
       </c>
       <c r="F54" t="n">
-        <v>50000</v>
+        <v>49903.9436</v>
       </c>
       <c r="G54" t="n">
-        <v>-1155451.999829905</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2578,9 +2546,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2608,10 +2574,10 @@
         <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>168.175</v>
+        <v>42919.405</v>
       </c>
       <c r="G55" t="n">
-        <v>-1155283.824829905</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2620,9 +2586,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2638,7 +2602,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
         <v>12</v>
@@ -2647,13 +2611,13 @@
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>34468.4708</v>
+        <v>26855.5</v>
       </c>
       <c r="G56" t="n">
-        <v>-1155283.824829905</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2662,9 +2626,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,22 +2642,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>8143.7121</v>
+        <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>-1163427.536929905</v>
+        <v>-1465657.396486325</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2704,9 +2666,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,22 +2682,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E58" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F58" t="n">
-        <v>5000.0001</v>
+        <v>45689.7766</v>
       </c>
       <c r="G58" t="n">
-        <v>-1163427.536929905</v>
+        <v>-1511347.173086325</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2746,9 +2706,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2764,22 +2722,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E59" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F59" t="n">
-        <v>4500</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1163427.536929905</v>
+        <v>-1511347.173086325</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2788,9 +2746,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,19 +2765,19 @@
         <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="E60" t="n">
         <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>253.4166</v>
+        <v>538672.1010365854</v>
       </c>
       <c r="G60" t="n">
-        <v>-1163174.120329905</v>
+        <v>-972675.0720497398</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2830,9 +2786,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,22 +2802,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C61" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D61" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E61" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>8800</v>
       </c>
       <c r="G61" t="n">
-        <v>-1163184.120329905</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2872,9 +2826,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,22 +2842,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C62" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D62" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E62" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F62" t="n">
-        <v>37869.7999</v>
+        <v>8800</v>
       </c>
       <c r="G62" t="n">
-        <v>-1163184.120329905</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2914,9 +2866,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,22 +2882,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>3887.272727272727</v>
       </c>
       <c r="G63" t="n">
-        <v>-1163172.120329905</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2956,9 +2906,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2974,22 +2922,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C64" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D64" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E64" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>40413.41507272727</v>
       </c>
       <c r="G64" t="n">
-        <v>-1163182.120329905</v>
+        <v>-981475.0720497398</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2998,9 +2946,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,22 +2962,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D65" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E65" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F65" t="n">
-        <v>68607.5107</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-1163182.120329905</v>
+        <v>-981465.0720497398</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3040,9 +2986,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,22 +3002,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E66" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>24081.6265</v>
       </c>
       <c r="G66" t="n">
-        <v>-1163192.120329905</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3082,9 +3026,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3100,22 +3042,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C67" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D67" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E67" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F67" t="n">
-        <v>165232.1497</v>
+        <v>18060</v>
       </c>
       <c r="G67" t="n">
-        <v>-997959.9706299047</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3124,9 +3066,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,7 +3082,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C68" t="n">
         <v>12.1</v>
@@ -3151,13 +3091,13 @@
         <v>12.1</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F68" t="n">
-        <v>164695.2194</v>
+        <v>18060</v>
       </c>
       <c r="G68" t="n">
-        <v>-833264.7512299046</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3166,9 +3106,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,22 +3122,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>6020</v>
       </c>
       <c r="G69" t="n">
-        <v>-833274.7512299046</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3208,9 +3146,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3226,22 +3162,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F70" t="n">
-        <v>8437.2474</v>
+        <v>8886.358</v>
       </c>
       <c r="G70" t="n">
-        <v>-833274.7512299046</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3250,9 +3186,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,10 +3214,10 @@
         <v>12.1</v>
       </c>
       <c r="F71" t="n">
-        <v>15127.2509</v>
+        <v>22380</v>
       </c>
       <c r="G71" t="n">
-        <v>-818147.5003299046</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3292,9 +3226,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,22 +3242,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E72" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F72" t="n">
-        <v>225953.1906</v>
+        <v>22380</v>
       </c>
       <c r="G72" t="n">
-        <v>-592194.3097299046</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3334,9 +3266,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,22 +3282,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C73" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D73" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E73" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F73" t="n">
-        <v>1421.5574</v>
+        <v>22380</v>
       </c>
       <c r="G73" t="n">
-        <v>-592194.3097299046</v>
+        <v>-1005546.69854974</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3376,9 +3306,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,19 +3325,19 @@
         <v>12.1</v>
       </c>
       <c r="C74" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D74" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E74" t="n">
         <v>12.1</v>
       </c>
       <c r="F74" t="n">
-        <v>35583.8808</v>
+        <v>32050.1639</v>
       </c>
       <c r="G74" t="n">
-        <v>-627778.1905299047</v>
+        <v>-973496.5346497397</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3418,9 +3346,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,22 +3362,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C75" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D75" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E75" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F75" t="n">
-        <v>40983.6065</v>
+        <v>7460</v>
       </c>
       <c r="G75" t="n">
-        <v>-586794.5840299047</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3460,9 +3386,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3478,22 +3402,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C76" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D76" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E76" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F76" t="n">
-        <v>7883.1252</v>
+        <v>10000</v>
       </c>
       <c r="G76" t="n">
-        <v>-586794.5840299047</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3502,9 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3520,22 +3442,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E77" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-586794.5840299047</v>
+        <v>-980956.5346497397</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3544,9 +3466,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3562,22 +3482,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F78" t="n">
-        <v>22</v>
+        <v>17743.2151</v>
       </c>
       <c r="G78" t="n">
-        <v>-586794.5840299047</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3586,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3604,22 +3522,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E79" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F79" t="n">
-        <v>2600</v>
+        <v>134290.2003</v>
       </c>
       <c r="G79" t="n">
-        <v>-586794.5840299047</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3628,9 +3546,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,22 +3562,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C80" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>16067.6852</v>
       </c>
       <c r="G80" t="n">
-        <v>-586794.5840299047</v>
+        <v>-998699.7497497398</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3670,9 +3586,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,22 +3602,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C81" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D81" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E81" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F81" t="n">
-        <v>3361.3444</v>
+        <v>7862.2314</v>
       </c>
       <c r="G81" t="n">
-        <v>-586794.5840299047</v>
+        <v>-990837.5183497397</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3712,9 +3626,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,22 +3642,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>16220.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>-586794.5840299047</v>
+        <v>-1007058.51824974</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3754,9 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,22 +3682,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>30000</v>
+        <v>710.2800999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-586794.5840299047</v>
+        <v>-1007058.51824974</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3796,9 +3706,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3814,22 +3722,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C84" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D84" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E84" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F84" t="n">
-        <v>45995.1533</v>
+        <v>68694.39870000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-632789.7373299047</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3838,9 +3746,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,22 +3762,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="C85" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="D85" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="E85" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F85" t="n">
-        <v>241.9354</v>
+        <v>278533.4683</v>
       </c>
       <c r="G85" t="n">
-        <v>-632547.8019299047</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3880,9 +3786,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,40 +3802,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C86" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D86" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E86" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>3847.7764</v>
       </c>
       <c r="G86" t="n">
-        <v>-632567.8019299047</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1.011806722689076</v>
+        <v>1</v>
       </c>
       <c r="N86" t="inlineStr"/>
     </row>
@@ -3940,32 +3842,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C87" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D87" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E87" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F87" t="n">
-        <v>174518.1842</v>
+        <v>42925.9996</v>
       </c>
       <c r="G87" t="n">
-        <v>-632567.8019299047</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3976,32 +3882,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C88" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D88" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E88" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>2970</v>
       </c>
       <c r="G88" t="n">
-        <v>-632556.8019299047</v>
+        <v>-1075752.91694974</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4012,22 +3922,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C89" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D89" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E89" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>135481.0847</v>
       </c>
       <c r="G89" t="n">
-        <v>-632566.8019299047</v>
+        <v>-1211234.00164974</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4037,7 +3947,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4048,22 +3962,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C90" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="D90" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E90" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="F90" t="n">
-        <v>40890.395</v>
+        <v>64518</v>
       </c>
       <c r="G90" t="n">
-        <v>-632566.8019299047</v>
+        <v>-1275752.00164974</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4073,7 +3987,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4084,22 +4002,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C91" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D91" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E91" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F91" t="n">
-        <v>6147.6229</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>-626419.1790299048</v>
+        <v>-1275741.00164974</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4109,7 +4027,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4120,22 +4042,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C92" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D92" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E92" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F92" t="n">
-        <v>91124.0831</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-717543.2621299048</v>
+        <v>-1275751.00164974</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4145,7 +4067,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4156,7 +4082,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C93" t="n">
         <v>12.1</v>
@@ -4165,13 +4091,13 @@
         <v>12.1</v>
       </c>
       <c r="E93" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F93" t="n">
-        <v>810</v>
+        <v>24985.97771983471</v>
       </c>
       <c r="G93" t="n">
-        <v>-717543.2621299048</v>
+        <v>-1250765.023929905</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4181,7 +4107,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4192,22 +4122,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E94" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>9390</v>
       </c>
       <c r="G94" t="n">
-        <v>-717553.2621299048</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4217,7 +4147,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4228,22 +4162,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C95" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D95" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E95" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F95" t="n">
-        <v>63891.157</v>
+        <v>9390</v>
       </c>
       <c r="G95" t="n">
-        <v>-653662.1051299048</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4253,7 +4187,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4264,22 +4202,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>3070</v>
       </c>
       <c r="G96" t="n">
-        <v>-653672.1051299048</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4289,7 +4227,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4300,22 +4242,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C97" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D97" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E97" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F97" t="n">
-        <v>2783.6387</v>
+        <v>1285.9663</v>
       </c>
       <c r="G97" t="n">
-        <v>-650888.4664299048</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4325,7 +4267,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4282,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C98" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D98" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E98" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F98" t="n">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-650770.4664299048</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4361,7 +4307,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4372,22 +4322,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C99" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D99" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E99" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F99" t="n">
-        <v>4658.5901</v>
+        <v>60</v>
       </c>
       <c r="G99" t="n">
-        <v>-650770.4664299048</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4397,7 +4347,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4408,22 +4362,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C100" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D100" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E100" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F100" t="n">
-        <v>16393.4426</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>-650770.4664299048</v>
+        <v>-1260155.023929905</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4433,7 +4387,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4444,22 +4402,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C101" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D101" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E101" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>25966.4719</v>
       </c>
       <c r="G101" t="n">
-        <v>-650780.4664299048</v>
+        <v>-1286121.495829905</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4469,7 +4427,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4480,22 +4442,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C102" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D102" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E102" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="F102" t="n">
-        <v>11</v>
+        <v>702.1494</v>
       </c>
       <c r="G102" t="n">
-        <v>-650769.4664299048</v>
+        <v>-1286121.495829905</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4505,7 +4467,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4516,22 +4482,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C103" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D103" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E103" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F103" t="n">
-        <v>29440.4918</v>
+        <v>1297.8506</v>
       </c>
       <c r="G103" t="n">
-        <v>-680209.9582299048</v>
+        <v>-1287419.346429905</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4541,7 +4507,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4552,22 +4522,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C104" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D104" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E104" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>1379.5126</v>
       </c>
       <c r="G104" t="n">
-        <v>-680219.9582299048</v>
+        <v>-1286039.833829905</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4577,7 +4547,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4588,22 +4562,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C105" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D105" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E105" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>43011.5571</v>
       </c>
       <c r="G105" t="n">
-        <v>-680208.9582299048</v>
+        <v>-1329051.390929905</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4613,7 +4587,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4624,22 +4602,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C106" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D106" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E106" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F106" t="n">
-        <v>49175.4019</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-680208.9582299048</v>
+        <v>-1329051.390929905</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4649,7 +4627,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4660,22 +4642,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C107" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D107" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E107" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F107" t="n">
-        <v>3889.2804</v>
+        <v>2500</v>
       </c>
       <c r="G107" t="n">
-        <v>-676319.6778299047</v>
+        <v>-1326551.390929905</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4685,7 +4667,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4696,32 +4682,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="C108" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="D108" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="E108" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="F108" t="n">
-        <v>23626.275</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-676319.6778299047</v>
+        <v>-1326561.390929905</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4732,32 +4722,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C109" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D109" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="E109" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="F109" t="n">
-        <v>121224.7617</v>
+        <v>61135.5683</v>
       </c>
       <c r="G109" t="n">
-        <v>-676319.6778299047</v>
+        <v>-1265425.822629905</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4768,36 +4762,2854 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="C110" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="D110" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="E110" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="F110" t="n">
-        <v>8064.516</v>
+        <v>6345.7876</v>
       </c>
       <c r="G110" t="n">
-        <v>-668255.1618299048</v>
+        <v>-1265425.822629905</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1265435.822629905</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1368.6728</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1265435.822629905</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4705.3781</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1260730.444529905</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1263870.444529905</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1263880.444529905</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1263869.444529905</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1263879.444529905</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6569.8065</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1257309.638029905</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>29569.1604</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1257309.638029905</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1257319.638029905</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>48146.8396</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1209172.798429905</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3367.5764</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1212540.374829905</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7098.375</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1205441.999829905</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1205451.999829905</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1155451.999829905</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12</v>
+      </c>
+      <c r="F126" t="n">
+        <v>168.175</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1155283.824829905</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>34468.4708</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1155283.824829905</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8143.7121</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1163427.536929905</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5000.0001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1163427.536929905</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1163427.536929905</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12</v>
+      </c>
+      <c r="F131" t="n">
+        <v>253.4166</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1163174.120329905</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1163184.120329905</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>37869.7999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1163184.120329905</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1163172.120329905</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1163182.120329905</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>68607.5107</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1163182.120329905</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1163192.120329905</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>165232.1497</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-997959.9706299047</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12</v>
+      </c>
+      <c r="F139" t="n">
+        <v>164695.2194</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-833264.7512299046</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-833274.7512299046</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8437.2474</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-833274.7512299046</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15127.2509</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-818147.5003299046</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>225953.1906</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-592194.3097299046</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1421.5574</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-592194.3097299046</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>35583.8808</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-627778.1905299047</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>40983.6065</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7883.1252</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>50</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>22</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3361.3444</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-586794.5840299047</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>45995.1533</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-632789.7373299047</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>241.9354</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-632547.8019299047</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-632567.8019299047</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>174518.1842</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-632567.8019299047</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>11</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-632556.8019299047</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-632566.8019299047</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>40890.395</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-632566.8019299047</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6147.6229</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-626419.1790299048</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>91124.0831</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-717543.2621299048</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>810</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-717543.2621299048</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-717553.2621299048</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>63891.157</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-653662.1051299048</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12</v>
+      </c>
+      <c r="F167" t="n">
+        <v>10</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-653672.1051299048</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2783.6387</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-650888.4664299048</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>118</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-650770.4664299048</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4658.5901</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-650770.4664299048</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16393.4426</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-650770.4664299048</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-650780.4664299048</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>11</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-650769.4664299048</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>29440.4918</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-680209.9582299048</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-680219.9582299048</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>11</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-680208.9582299048</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>49175.4019</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-680208.9582299048</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3889.2804</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-676319.6778299047</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23626.275</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-676319.6778299047</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>121224.7617</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-676319.6778299047</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8064.516</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-668255.1618299048</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-373877.3109863247</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>11.5</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>11.6</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>11.6</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>11.6</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,22 +640,21 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,20 +681,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -742,20 +718,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,20 +755,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,20 +792,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,20 +829,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -902,20 +866,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -942,20 +903,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,20 +940,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,20 +977,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1062,20 +1014,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1102,20 +1051,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1142,20 +1088,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1182,20 +1125,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1222,20 +1162,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1262,20 +1199,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1302,20 +1236,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1342,20 +1273,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1382,20 +1310,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,20 +1347,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1462,20 +1384,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,20 +1421,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1542,20 +1458,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1582,20 +1495,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1622,20 +1532,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1662,20 +1569,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1700,22 +1604,21 @@
         <v>-917910.6925863249</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1742,20 +1645,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1782,20 +1682,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1822,20 +1719,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1862,20 +1756,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1902,20 +1793,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1940,22 +1828,21 @@
         <v>-988937.305586325</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1980,22 +1867,21 @@
         <v>-1037904.838586325</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2020,22 +1906,21 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2060,22 +1945,21 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2100,22 +1984,21 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2142,20 +2025,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2180,22 +2060,21 @@
         <v>-926815.577786325</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2222,20 +2101,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2262,20 +2138,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2302,20 +2175,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2342,20 +2212,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2382,20 +2249,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2422,20 +2286,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2462,20 +2323,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2502,20 +2360,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2542,20 +2397,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2582,20 +2434,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2622,20 +2471,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2662,20 +2508,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2702,20 +2545,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2742,20 +2582,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2782,20 +2619,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2822,20 +2656,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2862,20 +2693,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,20 +2730,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2942,20 +2767,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2982,20 +2804,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3022,20 +2841,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3062,20 +2878,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3102,20 +2915,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3142,20 +2952,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3182,20 +2989,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3222,20 +3026,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3262,20 +3063,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3302,20 +3100,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3342,20 +3137,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3382,20 +3174,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3422,20 +3211,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3462,20 +3248,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3502,20 +3285,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3542,20 +3322,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3582,20 +3359,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3622,20 +3396,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3662,20 +3433,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3702,20 +3470,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3742,20 +3507,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3782,20 +3544,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3822,20 +3581,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3862,20 +3618,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3902,20 +3655,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3942,20 +3692,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3982,20 +3729,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4022,20 +3766,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4062,20 +3803,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4102,20 +3840,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4142,20 +3877,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4182,20 +3914,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4222,20 +3951,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4262,20 +3988,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4302,20 +4025,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4342,20 +4062,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4382,20 +4099,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4420,22 +4134,19 @@
         <v>-1286121.495829905</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4460,22 +4171,19 @@
         <v>-1286121.495829905</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4500,22 +4208,19 @@
         <v>-1287419.346429905</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4540,22 +4245,19 @@
         <v>-1286039.833829905</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4580,22 +4282,19 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4620,22 +4319,19 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4660,22 +4356,19 @@
         <v>-1326551.390929905</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4702,20 +4395,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4740,22 +4430,19 @@
         <v>-1265425.822629905</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4780,22 +4467,19 @@
         <v>-1265425.822629905</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4822,20 +4506,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4860,22 +4541,19 @@
         <v>-1265435.822629905</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4900,22 +4578,19 @@
         <v>-1260730.444529905</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4940,22 +4615,19 @@
         <v>-1263870.444529905</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4980,22 +4652,19 @@
         <v>-1263880.444529905</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5020,22 +4689,19 @@
         <v>-1263869.444529905</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5060,22 +4726,19 @@
         <v>-1263879.444529905</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5100,22 +4763,19 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5142,20 +4802,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5182,20 +4839,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5220,22 +4874,19 @@
         <v>-1209172.798429905</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5260,22 +4911,19 @@
         <v>-1212540.374829905</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5300,22 +4948,19 @@
         <v>-1205441.999829905</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5340,22 +4985,19 @@
         <v>-1205451.999829905</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5380,22 +5022,19 @@
         <v>-1155451.999829905</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5420,22 +5059,19 @@
         <v>-1155283.824829905</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5462,20 +5098,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5502,20 +5135,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5542,20 +5172,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5582,20 +5209,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5622,20 +5246,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5662,20 +5283,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5702,20 +5320,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5742,20 +5357,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5782,20 +5394,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5822,20 +5431,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5862,20 +5468,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5902,20 +5505,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5942,20 +5542,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5982,20 +5579,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6022,20 +5616,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6062,20 +5653,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6102,20 +5690,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6142,20 +5727,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6182,20 +5764,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6222,20 +5801,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6262,20 +5838,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6302,20 +5875,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6340,22 +5910,17 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6380,22 +5945,15 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6420,22 +5978,15 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6460,22 +6011,15 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6502,20 +6046,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6542,20 +6079,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6582,20 +6112,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6622,20 +6145,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6660,22 +6176,15 @@
         <v>-632567.8019299047</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6700,22 +6209,15 @@
         <v>-632567.8019299047</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6740,22 +6242,15 @@
         <v>-632556.8019299047</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6780,22 +6275,15 @@
         <v>-632566.8019299047</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6820,22 +6308,15 @@
         <v>-632566.8019299047</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6860,22 +6341,15 @@
         <v>-626419.1790299048</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6900,22 +6374,15 @@
         <v>-717543.2621299048</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6940,22 +6407,15 @@
         <v>-717543.2621299048</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6980,22 +6440,15 @@
         <v>-717553.2621299048</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7022,20 +6475,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7062,20 +6508,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7102,20 +6541,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7142,20 +6574,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7182,20 +6607,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7220,22 +6638,15 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7262,20 +6673,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7302,20 +6706,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7340,22 +6737,15 @@
         <v>-680209.9582299048</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7380,20 +6770,15 @@
         <v>-680219.9582299048</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L175" t="n">
+        <v>1</v>
       </c>
       <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7418,18 +6803,15 @@
         <v>-680208.9582299048</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7456,16 +6838,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7492,16 +6871,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7528,16 +6904,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7564,16 +6937,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7600,18 +6970,15 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-373877.3109863247</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-373826.3109863247</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,15 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>11.6</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,15 +620,17 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>11.8</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -682,10 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -720,11 +704,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,11 +737,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -794,11 +770,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -831,11 +803,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,11 +836,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,11 +869,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -942,11 +902,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,11 +935,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1016,11 +968,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1053,11 +1001,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,11 +1034,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1067,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1100,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1133,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,11 +1166,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1199,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1312,11 +1232,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1349,11 +1265,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1298,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1423,11 +1331,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1460,11 +1364,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1497,11 +1397,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1534,11 +1430,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1571,11 +1463,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1604,17 +1492,11 @@
         <v>-917910.6925863249</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,11 +1529,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1684,11 +1562,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1595,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1758,11 +1628,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1795,11 +1661,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1828,17 +1690,11 @@
         <v>-988937.305586325</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1867,17 +1723,11 @@
         <v>-1037904.838586325</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1906,17 +1756,11 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1945,17 +1789,15 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>11.8</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1984,15 +1826,17 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>11.8</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2023,13 +1867,17 @@
         <v>-926815.577786325</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2060,12 +1908,14 @@
         <v>-926815.577786325</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>11.9</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,7 +1952,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2139,7 +1991,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,7 +2030,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,7 +2069,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,7 +2108,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,7 +2147,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2324,7 +2186,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2361,7 +2225,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,7 +2264,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2435,7 +2303,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,7 +2342,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2509,7 +2381,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,7 +2420,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,7 +2459,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,7 +2498,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,7 +2537,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2694,7 +2576,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,7 +2615,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,7 +2654,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,7 +2693,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,7 +2732,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,7 +2771,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,7 +2810,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,7 +2849,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,7 +2888,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3027,7 +2927,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,7 +2966,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,7 +3005,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,7 +3044,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,7 +3083,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,7 +3122,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,7 +3161,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,7 +3200,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,7 +3239,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,7 +3278,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,7 +3317,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,7 +3356,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,7 +3395,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,7 +3434,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3545,7 +3473,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,7 +3551,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,7 +3590,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3693,7 +3629,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,7 +3668,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,10 +3704,14 @@
         <v>-1275741.00164974</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,7 +3748,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,10 +3784,14 @@
         <v>-1250765.023929905</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,7 +3828,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3915,7 +3867,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,7 +3906,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,7 +3945,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,7 +3984,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,7 +4023,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,7 +4062,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,10 +4098,12 @@
         <v>-1286121.495829905</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4171,10 +4137,12 @@
         <v>-1286121.495829905</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,8 +4178,12 @@
       <c r="H103" t="n">
         <v>1</v>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4247,8 +4219,12 @@
       <c r="H104" t="n">
         <v>1</v>
       </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4282,10 +4258,12 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,10 +4297,12 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,8 +4338,12 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4396,7 +4380,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,8 +4418,12 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J109" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,10 +4457,12 @@
         <v>-1265425.822629905</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,7 +4499,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,8 +4537,12 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,8 +4578,12 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,8 +4619,12 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J114" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4654,8 +4660,12 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,8 +4701,12 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,8 +4742,12 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J117" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,8 +4783,12 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,10 +4822,14 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J119" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,10 +4863,14 @@
         <v>-1257319.638029905</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J120" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4876,8 +4906,12 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4913,8 +4947,12 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,8 +4988,12 @@
       <c r="H123" t="n">
         <v>1</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,8 +5029,12 @@
       <c r="H124" t="n">
         <v>1</v>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>12</v>
+      </c>
+      <c r="J124" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,8 +5070,12 @@
       <c r="H125" t="n">
         <v>1</v>
       </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J125" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,8 +5111,12 @@
       <c r="H126" t="n">
         <v>1</v>
       </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,7 +5153,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,7 +5192,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,10 +5228,14 @@
         <v>-1163427.536929905</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,10 +5269,14 @@
         <v>-1163427.536929905</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,10 +5310,14 @@
         <v>-1163174.120329905</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,10 +5351,14 @@
         <v>-1163184.120329905</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>12</v>
+      </c>
+      <c r="J132" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5321,7 +5395,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5358,7 +5434,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5395,7 +5473,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5432,7 +5512,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,7 +5551,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,10 +5587,14 @@
         <v>-997959.9706299047</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,10 +5628,14 @@
         <v>-833264.7512299046</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,7 +5672,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,7 +5711,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,7 +5750,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,7 +5789,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5728,7 +5828,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,7 +5867,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5802,7 +5906,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,7 +5945,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,7 +5984,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,16 +6020,20 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
       <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -5945,11 +6059,17 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5978,11 +6098,17 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +6137,17 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6047,8 +6179,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6080,8 +6218,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6113,8 +6257,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6146,8 +6296,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +6332,17 @@
         <v>-632567.8019299047</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6371,17 @@
         <v>-632567.8019299047</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +6410,17 @@
         <v>-632556.8019299047</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6275,11 +6449,17 @@
         <v>-632566.8019299047</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6488,17 @@
         <v>-632566.8019299047</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +6527,17 @@
         <v>-626419.1790299048</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +6566,17 @@
         <v>-717543.2621299048</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6407,11 +6605,17 @@
         <v>-717543.2621299048</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +6644,17 @@
         <v>-717553.2621299048</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6476,8 +6686,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6509,8 +6725,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6542,8 +6764,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6575,8 +6803,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6608,8 +6842,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +6878,17 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6674,8 +6920,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6707,8 +6959,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +6995,17 @@
         <v>-680209.9582299048</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6770,11 +7034,17 @@
         <v>-680219.9582299048</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6803,11 +7073,17 @@
         <v>-680208.9582299048</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6839,8 +7115,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6869,13 +7151,19 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L178" t="n">
-        <v>1</v>
+        <v>1.037372881355932</v>
       </c>
       <c r="M178" t="inlineStr"/>
     </row>
@@ -6935,7 +7223,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6968,7 +7256,7 @@
         <v>-668255.1618299048</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6979,6 +7267,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>-373815.3109863247</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -664,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -1789,14 +1771,10 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1826,2769 +1804,2333 @@
         <v>-987893.8385863251</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>61078.2608</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-926815.577786325</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-926815.577786325</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>616834.4431</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1543650.020886325</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30074.7899</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1513575.230986325</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5159.8927</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1513575.230986325</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>31858.266</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1513575.230986325</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>53788.003</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1513575.230986325</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12</v>
+      </c>
+      <c r="E51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>33232.6409</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1513575.230986325</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>12</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+      <c r="D52" t="n">
+        <v>12</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6813.8909</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1506761.340086325</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1515561.340086325</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>49903.9436</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1465657.396486325</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12</v>
+      </c>
+      <c r="D55" t="n">
+        <v>12</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>42919.405</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1465657.396486325</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>12</v>
+      </c>
+      <c r="D56" t="n">
+        <v>12</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12</v>
+      </c>
+      <c r="F56" t="n">
+        <v>26855.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1465657.396486325</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>12</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1465657.396486325</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>45689.7766</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1511347.173086325</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F59" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1511347.173086325</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" t="n">
+        <v>538672.1010365854</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-972675.0720497398</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-981475.0720497398</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-981475.0720497398</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3887.272727272727</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-981475.0720497398</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>40413.41507272727</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-981475.0720497398</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-981465.0720497398</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>24081.6265</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>18060</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>18060</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6020</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8886.358</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>22380</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>22380</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>22380</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1005546.69854974</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>32050.1639</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-973496.5346497397</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7460</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-980956.5346497397</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-980956.5346497397</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-980956.5346497397</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>12</v>
+      </c>
+      <c r="C78" t="n">
+        <v>12</v>
+      </c>
+      <c r="D78" t="n">
+        <v>12</v>
+      </c>
+      <c r="E78" t="n">
+        <v>12</v>
+      </c>
+      <c r="F78" t="n">
+        <v>17743.2151</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-998699.7497497398</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>12</v>
+      </c>
+      <c r="C79" t="n">
+        <v>12</v>
+      </c>
+      <c r="D79" t="n">
+        <v>12</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>134290.2003</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-998699.7497497398</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>12</v>
+      </c>
+      <c r="C80" t="n">
+        <v>12</v>
+      </c>
+      <c r="D80" t="n">
+        <v>12</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16067.6852</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-998699.7497497398</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7862.2314</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-990837.5183497397</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>12</v>
+      </c>
+      <c r="C82" t="n">
+        <v>12</v>
+      </c>
+      <c r="D82" t="n">
+        <v>12</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12</v>
+      </c>
+      <c r="F82" t="n">
+        <v>16220.9999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1007058.51824974</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12</v>
+      </c>
+      <c r="D83" t="n">
+        <v>12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12</v>
+      </c>
+      <c r="F83" t="n">
+        <v>710.2800999999999</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1007058.51824974</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>68694.39870000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1075752.91694974</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>278533.4683</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1075752.91694974</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3847.7764</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1075752.91694974</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>42925.9996</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1075752.91694974</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2970</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1075752.91694974</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>135481.0847</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1211234.00164974</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>64518</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1275752.00164974</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>11</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1275741.00164974</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1275751.00164974</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F93" t="n">
+        <v>24985.97771983471</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1250765.023929905</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9390</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1260155.023929905</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9390</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1260155.023929905</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3070</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1260155.023929905</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1285.9663</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1260155.023929905</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1260155.023929905</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>60</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1260155.023929905</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>50</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1260155.023929905</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>25966.4719</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1286121.495829905</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C102" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>702.1494</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1286121.495829905</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1297.8506</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1287419.346429905</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1379.5126</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1286039.833829905</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>43011.5571</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1329051.390929905</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1329051.390929905</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1326551.390929905</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1326561.390929905</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>61135.5683</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1265425.822629905</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6345.7876</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1265425.822629905</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1265435.822629905</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1368.6728</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1265435.822629905</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4705.3781</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1260730.444529905</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D44" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>61078.2608</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-926815.577786325</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F45" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-926815.577786325</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>616834.4431</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1543650.020886325</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>30074.7899</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5159.8927</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F49" t="n">
-        <v>31858.266</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C50" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D50" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E50" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F50" t="n">
-        <v>53788.003</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>12</v>
-      </c>
-      <c r="C51" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D51" t="n">
-        <v>12</v>
-      </c>
-      <c r="E51" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>33232.6409</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>12</v>
-      </c>
-      <c r="C52" t="n">
-        <v>12</v>
-      </c>
-      <c r="D52" t="n">
-        <v>12</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12</v>
-      </c>
-      <c r="F52" t="n">
-        <v>6813.8909</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-1506761.340086325</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D53" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E53" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1515561.340086325</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>12</v>
-      </c>
-      <c r="D54" t="n">
-        <v>12</v>
-      </c>
-      <c r="E54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>49903.9436</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>12</v>
-      </c>
-      <c r="C55" t="n">
-        <v>12</v>
-      </c>
-      <c r="D55" t="n">
-        <v>12</v>
-      </c>
-      <c r="E55" t="n">
-        <v>12</v>
-      </c>
-      <c r="F55" t="n">
-        <v>42919.405</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>12</v>
-      </c>
-      <c r="C56" t="n">
-        <v>12</v>
-      </c>
-      <c r="D56" t="n">
-        <v>12</v>
-      </c>
-      <c r="E56" t="n">
-        <v>12</v>
-      </c>
-      <c r="F56" t="n">
-        <v>26855.5</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>12</v>
-      </c>
-      <c r="C57" t="n">
-        <v>12</v>
-      </c>
-      <c r="D57" t="n">
-        <v>12</v>
-      </c>
-      <c r="E57" t="n">
-        <v>12</v>
-      </c>
-      <c r="F57" t="n">
-        <v>12</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>45689.7766</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-1511347.173086325</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F59" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1511347.173086325</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>12</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12</v>
-      </c>
-      <c r="F60" t="n">
-        <v>538672.1010365854</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-972675.0720497398</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3887.272727272727</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>40413.41507272727</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>10</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-981465.0720497398</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>24081.6265</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>18060</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>18060</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>6020</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8886.358</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>22380</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>22380</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>22380</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C74" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F74" t="n">
-        <v>32050.1639</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-973496.5346497397</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F75" t="n">
-        <v>7460</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-980956.5346497397</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F76" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-980956.5346497397</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-980956.5346497397</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>12</v>
-      </c>
-      <c r="C78" t="n">
-        <v>12</v>
-      </c>
-      <c r="D78" t="n">
-        <v>12</v>
-      </c>
-      <c r="E78" t="n">
-        <v>12</v>
-      </c>
-      <c r="F78" t="n">
-        <v>17743.2151</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-998699.7497497398</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>12</v>
-      </c>
-      <c r="C79" t="n">
-        <v>12</v>
-      </c>
-      <c r="D79" t="n">
-        <v>12</v>
-      </c>
-      <c r="E79" t="n">
-        <v>12</v>
-      </c>
-      <c r="F79" t="n">
-        <v>134290.2003</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-998699.7497497398</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>12</v>
-      </c>
-      <c r="C80" t="n">
-        <v>12</v>
-      </c>
-      <c r="D80" t="n">
-        <v>12</v>
-      </c>
-      <c r="E80" t="n">
-        <v>12</v>
-      </c>
-      <c r="F80" t="n">
-        <v>16067.6852</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-998699.7497497398</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C81" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>7862.2314</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-990837.5183497397</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>12</v>
-      </c>
-      <c r="C82" t="n">
-        <v>12</v>
-      </c>
-      <c r="D82" t="n">
-        <v>12</v>
-      </c>
-      <c r="E82" t="n">
-        <v>12</v>
-      </c>
-      <c r="F82" t="n">
-        <v>16220.9999</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1007058.51824974</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C83" t="n">
-        <v>12</v>
-      </c>
-      <c r="D83" t="n">
-        <v>12</v>
-      </c>
-      <c r="E83" t="n">
-        <v>12</v>
-      </c>
-      <c r="F83" t="n">
-        <v>710.2800999999999</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1007058.51824974</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F84" t="n">
-        <v>68694.39870000001</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F85" t="n">
-        <v>278533.4683</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3847.7764</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F87" t="n">
-        <v>42925.9996</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2970</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F89" t="n">
-        <v>135481.0847</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-1211234.00164974</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>64518</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1275752.00164974</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F91" t="n">
-        <v>11</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1275741.00164974</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1275751.00164974</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C93" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F93" t="n">
-        <v>24985.97771983471</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1250765.023929905</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F94" t="n">
-        <v>9390</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F95" t="n">
-        <v>9390</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3070</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1285.9663</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F98" t="n">
-        <v>10</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>60</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>50</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>25966.4719</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1286121.495829905</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F102" t="n">
-        <v>702.1494</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1286121.495829905</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D103" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E103" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1297.8506</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1287419.346429905</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1379.5126</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1286039.833829905</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C105" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D105" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E105" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>43011.5571</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-1329051.390929905</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F106" t="n">
-        <v>10</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-1329051.390929905</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-1326551.390929905</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E108" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>10</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-1326561.390929905</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F109" t="n">
-        <v>61135.5683</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1265425.822629905</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F110" t="n">
-        <v>6345.7876</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-1265425.822629905</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C111" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D111" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E111" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1265435.822629905</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1368.6728</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1265435.822629905</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J112" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4705.3781</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1260730.444529905</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J113" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4617,17 +4159,15 @@
         <v>-1263870.444529905</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4658,19 +4198,11 @@
         <v>-1263880.444529905</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4705,13 +4237,9 @@
         <v>11.7</v>
       </c>
       <c r="J116" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4740,17 +4268,15 @@
         <v>-1263879.444529905</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4781,17 +4307,15 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4822,19 +4346,11 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J119" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4863,19 +4379,11 @@
         <v>-1257319.638029905</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4904,19 +4412,11 @@
         <v>-1209172.798429905</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4945,19 +4445,11 @@
         <v>-1212540.374829905</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4986,19 +4478,11 @@
         <v>-1205441.999829905</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5027,19 +4511,11 @@
         <v>-1205451.999829905</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>12</v>
-      </c>
-      <c r="J124" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5068,19 +4544,11 @@
         <v>-1155451.999829905</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J125" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5109,19 +4577,11 @@
         <v>-1155283.824829905</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5153,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5192,14 +4646,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5228,19 +4676,11 @@
         <v>-1163427.536929905</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J129" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5269,19 +4709,11 @@
         <v>-1163427.536929905</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5310,19 +4742,11 @@
         <v>-1163174.120329905</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J131" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5351,19 +4775,11 @@
         <v>-1163184.120329905</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>12</v>
-      </c>
-      <c r="J132" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5395,14 +4811,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5434,14 +4844,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5473,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5512,14 +4910,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5551,14 +4943,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5587,19 +4973,11 @@
         <v>-997959.9706299047</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J138" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5628,19 +5006,11 @@
         <v>-833264.7512299046</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J139" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5672,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5075,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5750,14 +5108,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5789,14 +5141,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5828,14 +5174,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5867,14 +5207,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5906,14 +5240,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5942,17 +5270,11 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5981,17 +5303,11 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6020,17 +5336,11 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6062,14 +5372,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6101,14 +5405,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6140,14 +5438,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6179,14 +5471,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6218,14 +5504,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6257,14 +5537,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6296,14 +5570,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6335,14 +5603,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6374,14 +5636,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6413,14 +5669,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6452,14 +5702,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6491,14 +5735,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6530,14 +5768,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6569,14 +5801,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6608,14 +5834,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6647,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6686,14 +5900,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6722,17 +5930,11 @@
         <v>-653672.1051299048</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6761,17 +5963,11 @@
         <v>-650888.4664299048</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6800,17 +5996,11 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6842,14 +6032,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6881,14 +6065,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6920,14 +6098,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6959,14 +6131,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6998,14 +6164,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7037,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7076,14 +6230,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7115,14 +6263,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7151,19 +6293,13 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>1.037372881355932</v>
+        <v>1</v>
       </c>
       <c r="M178" t="inlineStr"/>
     </row>
@@ -7223,7 +6359,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7256,7 +6392,7 @@
         <v>-668255.1618299048</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7267,6 +6403,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -1573,10 +1573,14 @@
         <v>-962387.973986325</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1609,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1649,19 @@
         <v>-988937.305586325</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1693,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1729,19 @@
         <v>-1037904.838586325</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1773,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1812,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1851,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1887,17 @@
         <v>-926815.577786325</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1929,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1965,17 @@
         <v>-1543650.020886325</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2004,17 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2043,17 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2082,17 @@
         <v>-1513575.230986325</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2124,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2163,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2202,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2241,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2280,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2319,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2358,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2397,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2436,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2475,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2514,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2553,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2592,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2631,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2670,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2709,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2748,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2787,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2826,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2865,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2904,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2943,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2982,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3021,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3060,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3099,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3138,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3177,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3216,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3255,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3294,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3333,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3372,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3411,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3450,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3489,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3525,17 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3564,19 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3605,19 @@
         <v>-1075752.91694974</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3685,17 @@
         <v>-1275752.00164974</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3724,19 @@
         <v>-1275741.00164974</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3768,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3804,19 @@
         <v>-1250765.023929905</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3887,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3965,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4004,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4043,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4082,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4121,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4157,19 @@
         <v>-1286121.495829905</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4198,19 @@
         <v>-1287419.346429905</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4239,19 @@
         <v>-1286039.833829905</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4280,19 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J105" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4321,19 @@
         <v>-1329051.390929905</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J106" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4362,19 @@
         <v>-1326551.390929905</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4403,19 @@
         <v>-1326561.390929905</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4444,19 @@
         <v>-1265425.822629905</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J109" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4485,19 @@
         <v>-1265425.822629905</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4526,19 @@
         <v>-1265435.822629905</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J111" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4087,9 +4573,13 @@
         <v>11.7</v>
       </c>
       <c r="J112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4124,11 +4614,11 @@
         <v>11.7</v>
       </c>
       <c r="J113" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4159,15 +4649,17 @@
         <v>-1263870.444529905</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J114" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4198,11 +4690,19 @@
         <v>-1263880.444529905</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4237,9 +4737,13 @@
         <v>11.7</v>
       </c>
       <c r="J116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>11.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4268,15 +4772,17 @@
         <v>-1263879.444529905</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J117" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4307,15 +4813,17 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J118" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4346,11 +4854,19 @@
         <v>-1257309.638029905</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J119" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4379,11 +4895,19 @@
         <v>-1257319.638029905</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J120" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +4936,19 @@
         <v>-1209172.798429905</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4445,11 +4977,19 @@
         <v>-1212540.374829905</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +5018,19 @@
         <v>-1205441.999829905</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4511,11 +5059,19 @@
         <v>-1205451.999829905</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>12</v>
+      </c>
+      <c r="J124" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4544,11 +5100,19 @@
         <v>-1155451.999829905</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J125" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4577,11 +5141,19 @@
         <v>-1155283.824829905</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4679,8 +5263,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4709,11 +5299,19 @@
         <v>-1163427.536929905</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4745,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4778,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4811,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +5457,19 @@
         <v>-1163172.120329905</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J134" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4877,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4910,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4940,11 +5576,19 @@
         <v>-1163192.120329905</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4973,11 +5617,19 @@
         <v>-997959.9706299047</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5006,11 +5658,19 @@
         <v>-833264.7512299046</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5075,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5108,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5141,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5174,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5207,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5240,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5270,11 +5972,17 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +6011,17 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5336,11 +6050,17 @@
         <v>-586794.5840299047</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5372,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5405,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5438,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5471,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5504,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5537,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5570,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5600,13 +6362,19 @@
         <v>-632567.8019299047</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>1.020423728813559</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -5930,7 +6698,7 @@
         <v>-653672.1051299048</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5963,7 +6731,7 @@
         <v>-650888.4664299048</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5996,7 +6764,7 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6062,7 +6830,7 @@
         <v>-650770.4664299048</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6194,7 +6962,7 @@
         <v>-680219.9582299048</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6326,7 +7094,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6359,7 +7127,7 @@
         <v>-676319.6778299047</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6392,7 +7160,7 @@
         <v>-668255.1618299048</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-17 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3500.037</v>
       </c>
       <c r="G2" t="n">
-        <v>-373877.3109863247</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>51</v>
       </c>
       <c r="G3" t="n">
-        <v>-373826.3109863247</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>-373826.3109863247</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>226104.7867</v>
       </c>
       <c r="G5" t="n">
-        <v>-373826.3109863247</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>-373815.3109863247</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,19 @@
         <v>279562.7366484375</v>
       </c>
       <c r="G7" t="n">
-        <v>-373815.3109863247</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +651,19 @@
         <v>110874.1</v>
       </c>
       <c r="G8" t="n">
-        <v>-373815.3109863247</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +685,19 @@
         <v>44466.1423</v>
       </c>
       <c r="G9" t="n">
-        <v>-373815.3109863247</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,19 @@
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>-373793.3109863247</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +753,19 @@
         <v>310874.234</v>
       </c>
       <c r="G11" t="n">
-        <v>-684667.5449863247</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +787,19 @@
         <v>56526.1966</v>
       </c>
       <c r="G12" t="n">
-        <v>-684667.5449863247</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +821,19 @@
         <v>44688.5932</v>
       </c>
       <c r="G13" t="n">
-        <v>-729356.1381863247</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +855,19 @@
         <v>85169.4915</v>
       </c>
       <c r="G14" t="n">
-        <v>-644186.6466863247</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +889,19 @@
         <v>172473.3638</v>
       </c>
       <c r="G15" t="n">
-        <v>-816660.0104863248</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +923,19 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-816650.0104863248</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +957,19 @@
         <v>41.6666</v>
       </c>
       <c r="G17" t="n">
-        <v>-816650.0104863248</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +991,19 @@
         <v>1730.9516</v>
       </c>
       <c r="G18" t="n">
-        <v>-818380.9620863248</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1025,19 @@
         <v>1601.6273</v>
       </c>
       <c r="G19" t="n">
-        <v>-818380.9620863248</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1059,19 @@
         <v>30473.0044</v>
       </c>
       <c r="G20" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1093,19 @@
         <v>1535.1968</v>
       </c>
       <c r="G21" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1127,19 @@
         <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1161,19 @@
         <v>10903.3613</v>
       </c>
       <c r="G23" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1195,19 @@
         <v>4201.6806</v>
       </c>
       <c r="G24" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1229,19 @@
         <v>870.4169000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1263,19 @@
         <v>8401.6806</v>
       </c>
       <c r="G26" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1297,19 @@
         <v>4201.6806</v>
       </c>
       <c r="G27" t="n">
-        <v>-787907.9576863248</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1331,19 @@
         <v>130002.7349</v>
       </c>
       <c r="G28" t="n">
-        <v>-917910.6925863249</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1365,19 @@
         <v>203858.5101</v>
       </c>
       <c r="G29" t="n">
-        <v>-917910.6925863249</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1399,19 @@
         <v>4545.1592</v>
       </c>
       <c r="G30" t="n">
-        <v>-917910.6925863249</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1433,19 @@
         <v>33291.8302</v>
       </c>
       <c r="G31" t="n">
-        <v>-917910.6925863249</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1467,19 @@
         <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>-917910.6925863249</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1501,19 @@
         <v>29105.7109</v>
       </c>
       <c r="G33" t="n">
-        <v>-917910.6925863249</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1535,19 @@
         <v>46068.376</v>
       </c>
       <c r="G34" t="n">
-        <v>-963979.0685863249</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1569,19 @@
         <v>1591.0946</v>
       </c>
       <c r="G35" t="n">
-        <v>-962387.973986325</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,22 +1603,19 @@
         <v>166278.0193</v>
       </c>
       <c r="G36" t="n">
-        <v>-962387.973986325</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1607,24 +1637,19 @@
         <v>26560.3316</v>
       </c>
       <c r="G37" t="n">
-        <v>-988948.305586325</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1646,26 +1671,19 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>-988937.305586325</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1687,24 +1705,19 @@
         <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>-988937.305586325</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1726,26 +1739,19 @@
         <v>48967.533</v>
       </c>
       <c r="G40" t="n">
-        <v>-1037904.838586325</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1767,24 +1773,19 @@
         <v>50011</v>
       </c>
       <c r="G41" t="n">
-        <v>-987893.8385863251</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1806,24 +1807,19 @@
         <v>2579.5656</v>
       </c>
       <c r="G42" t="n">
-        <v>-987893.8385863251</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1845,24 +1841,19 @@
         <v>6175.4385</v>
       </c>
       <c r="G43" t="n">
-        <v>-987893.8385863251</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1884,24 +1875,19 @@
         <v>61078.2608</v>
       </c>
       <c r="G44" t="n">
-        <v>-926815.577786325</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1923,24 +1909,19 @@
         <v>8800</v>
       </c>
       <c r="G45" t="n">
-        <v>-926815.577786325</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1962,24 +1943,19 @@
         <v>616834.4431</v>
       </c>
       <c r="G46" t="n">
-        <v>-1543650.020886325</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2001,24 +1977,19 @@
         <v>30074.7899</v>
       </c>
       <c r="G47" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2040,24 +2011,19 @@
         <v>5159.8927</v>
       </c>
       <c r="G48" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2079,24 +2045,19 @@
         <v>31858.266</v>
       </c>
       <c r="G49" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2118,24 +2079,19 @@
         <v>53788.003</v>
       </c>
       <c r="G50" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2157,24 +2113,19 @@
         <v>33232.6409</v>
       </c>
       <c r="G51" t="n">
-        <v>-1513575.230986325</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2196,24 +2147,19 @@
         <v>6813.8909</v>
       </c>
       <c r="G52" t="n">
-        <v>-1506761.340086325</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2235,24 +2181,19 @@
         <v>8800</v>
       </c>
       <c r="G53" t="n">
-        <v>-1515561.340086325</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2274,24 +2215,19 @@
         <v>49903.9436</v>
       </c>
       <c r="G54" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2313,24 +2249,19 @@
         <v>42919.405</v>
       </c>
       <c r="G55" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,24 +2283,19 @@
         <v>26855.5</v>
       </c>
       <c r="G56" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2391,24 +2317,19 @@
         <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>-1465657.396486325</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2430,24 +2351,19 @@
         <v>45689.7766</v>
       </c>
       <c r="G58" t="n">
-        <v>-1511347.173086325</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2469,24 +2385,19 @@
         <v>50000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1511347.173086325</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2508,24 +2419,19 @@
         <v>538672.1010365854</v>
       </c>
       <c r="G60" t="n">
-        <v>-972675.0720497398</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2547,24 +2453,19 @@
         <v>8800</v>
       </c>
       <c r="G61" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2586,24 +2487,19 @@
         <v>8800</v>
       </c>
       <c r="G62" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2625,24 +2521,19 @@
         <v>3887.272727272727</v>
       </c>
       <c r="G63" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2664,24 +2555,19 @@
         <v>40413.41507272727</v>
       </c>
       <c r="G64" t="n">
-        <v>-981475.0720497398</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2703,24 +2589,19 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-981465.0720497398</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2742,24 +2623,19 @@
         <v>24081.6265</v>
       </c>
       <c r="G66" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2781,24 +2657,19 @@
         <v>18060</v>
       </c>
       <c r="G67" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2820,24 +2691,19 @@
         <v>18060</v>
       </c>
       <c r="G68" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2859,24 +2725,19 @@
         <v>6020</v>
       </c>
       <c r="G69" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2898,24 +2759,19 @@
         <v>8886.358</v>
       </c>
       <c r="G70" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2937,24 +2793,19 @@
         <v>22380</v>
       </c>
       <c r="G71" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,24 +2827,19 @@
         <v>22380</v>
       </c>
       <c r="G72" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3015,24 +2861,19 @@
         <v>22380</v>
       </c>
       <c r="G73" t="n">
-        <v>-1005546.69854974</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3054,24 +2895,19 @@
         <v>32050.1639</v>
       </c>
       <c r="G74" t="n">
-        <v>-973496.5346497397</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3093,24 +2929,19 @@
         <v>7460</v>
       </c>
       <c r="G75" t="n">
-        <v>-980956.5346497397</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3132,24 +2963,19 @@
         <v>10000</v>
       </c>
       <c r="G76" t="n">
-        <v>-980956.5346497397</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3171,24 +2997,19 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-980956.5346497397</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,24 +3031,19 @@
         <v>17743.2151</v>
       </c>
       <c r="G78" t="n">
-        <v>-998699.7497497398</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3249,24 +3065,19 @@
         <v>134290.2003</v>
       </c>
       <c r="G79" t="n">
-        <v>-998699.7497497398</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3288,24 +3099,19 @@
         <v>16067.6852</v>
       </c>
       <c r="G80" t="n">
-        <v>-998699.7497497398</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3327,24 +3133,19 @@
         <v>7862.2314</v>
       </c>
       <c r="G81" t="n">
-        <v>-990837.5183497397</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3366,24 +3167,19 @@
         <v>16220.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>-1007058.51824974</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3405,24 +3201,19 @@
         <v>710.2800999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-1007058.51824974</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3444,24 +3235,19 @@
         <v>68694.39870000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3483,24 +3269,19 @@
         <v>278533.4683</v>
       </c>
       <c r="G85" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3522,24 +3303,19 @@
         <v>3847.7764</v>
       </c>
       <c r="G86" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3561,26 +3337,19 @@
         <v>42925.9996</v>
       </c>
       <c r="G87" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3602,26 +3371,19 @@
         <v>2970</v>
       </c>
       <c r="G88" t="n">
-        <v>-1075752.91694974</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3643,24 +3405,19 @@
         <v>135481.0847</v>
       </c>
       <c r="G89" t="n">
-        <v>-1211234.00164974</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3682,24 +3439,19 @@
         <v>64518</v>
       </c>
       <c r="G90" t="n">
-        <v>-1275752.00164974</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3721,26 +3473,19 @@
         <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>-1275741.00164974</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3762,24 +3507,19 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-1275751.00164974</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3801,26 +3541,19 @@
         <v>24985.97771983471</v>
       </c>
       <c r="G93" t="n">
-        <v>-1250765.023929905</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3842,24 +3575,19 @@
         <v>9390</v>
       </c>
       <c r="G94" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3881,24 +3609,19 @@
         <v>9390</v>
       </c>
       <c r="G95" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3920,24 +3643,19 @@
         <v>3070</v>
       </c>
       <c r="G96" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3959,24 +3677,19 @@
         <v>1285.9663</v>
       </c>
       <c r="G97" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3998,24 +3711,19 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4037,24 +3745,19 @@
         <v>60</v>
       </c>
       <c r="G99" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4076,24 +3779,19 @@
         <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>-1260155.023929905</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4115,24 +3813,19 @@
         <v>25966.4719</v>
       </c>
       <c r="G101" t="n">
-        <v>-1286121.495829905</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4154,26 +3847,19 @@
         <v>702.1494</v>
       </c>
       <c r="G102" t="n">
-        <v>-1286121.495829905</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4195,26 +3881,19 @@
         <v>1297.8506</v>
       </c>
       <c r="G103" t="n">
-        <v>-1287419.346429905</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4236,26 +3915,19 @@
         <v>1379.5126</v>
       </c>
       <c r="G104" t="n">
-        <v>-1286039.833829905</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4277,26 +3949,19 @@
         <v>43011.5571</v>
       </c>
       <c r="G105" t="n">
-        <v>-1329051.390929905</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4318,26 +3983,19 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-1329051.390929905</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J106" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4359,26 +4017,19 @@
         <v>2500</v>
       </c>
       <c r="G107" t="n">
-        <v>-1326551.390929905</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J107" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4400,26 +4051,19 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-1326561.390929905</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J108" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4441,26 +4085,19 @@
         <v>61135.5683</v>
       </c>
       <c r="G109" t="n">
-        <v>-1265425.822629905</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J109" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4482,26 +4119,19 @@
         <v>6345.7876</v>
       </c>
       <c r="G110" t="n">
-        <v>-1265425.822629905</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J110" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4523,26 +4153,19 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-1265435.822629905</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J111" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4564,26 +4187,19 @@
         <v>1368.6728</v>
       </c>
       <c r="G112" t="n">
-        <v>-1265435.822629905</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J112" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4605,26 +4221,19 @@
         <v>4705.3781</v>
       </c>
       <c r="G113" t="n">
-        <v>-1260730.444529905</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J113" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4646,26 +4255,19 @@
         <v>3140</v>
       </c>
       <c r="G114" t="n">
-        <v>-1263870.444529905</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J114" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4687,26 +4289,19 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-1263880.444529905</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J115" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4728,26 +4323,19 @@
         <v>11</v>
       </c>
       <c r="G116" t="n">
-        <v>-1263869.444529905</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J116" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4769,26 +4357,19 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-1263879.444529905</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J117" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4810,26 +4391,19 @@
         <v>6569.8065</v>
       </c>
       <c r="G118" t="n">
-        <v>-1257309.638029905</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J118" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4851,26 +4425,19 @@
         <v>29569.1604</v>
       </c>
       <c r="G119" t="n">
-        <v>-1257309.638029905</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J119" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4892,26 +4459,19 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>-1257319.638029905</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4933,26 +4493,19 @@
         <v>48146.8396</v>
       </c>
       <c r="G121" t="n">
-        <v>-1209172.798429905</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4974,26 +4527,19 @@
         <v>3367.5764</v>
       </c>
       <c r="G122" t="n">
-        <v>-1212540.374829905</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5015,26 +4561,19 @@
         <v>7098.375</v>
       </c>
       <c r="G123" t="n">
-        <v>-1205441.999829905</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5056,26 +4595,19 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-1205451.999829905</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>12</v>
-      </c>
-      <c r="J124" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5097,26 +4629,19 @@
         <v>50000</v>
       </c>
       <c r="G125" t="n">
-        <v>-1155451.999829905</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J125" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5138,26 +4663,19 @@
         <v>168.175</v>
       </c>
       <c r="G126" t="n">
-        <v>-1155283.824829905</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5179,24 +4697,19 @@
         <v>34468.4708</v>
       </c>
       <c r="G127" t="n">
-        <v>-1155283.824829905</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5218,24 +4731,19 @@
         <v>8143.7121</v>
       </c>
       <c r="G128" t="n">
-        <v>-1163427.536929905</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5257,24 +4765,19 @@
         <v>5000.0001</v>
       </c>
       <c r="G129" t="n">
-        <v>-1163427.536929905</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5296,26 +4799,19 @@
         <v>4500</v>
       </c>
       <c r="G130" t="n">
-        <v>-1163427.536929905</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5337,24 +4833,19 @@
         <v>253.4166</v>
       </c>
       <c r="G131" t="n">
-        <v>-1163174.120329905</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5376,24 +4867,19 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>-1163184.120329905</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5415,24 +4901,19 @@
         <v>37869.7999</v>
       </c>
       <c r="G133" t="n">
-        <v>-1163184.120329905</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5454,26 +4935,19 @@
         <v>12</v>
       </c>
       <c r="G134" t="n">
-        <v>-1163172.120329905</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J134" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5495,24 +4969,19 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-1163182.120329905</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5534,24 +5003,19 @@
         <v>68607.5107</v>
       </c>
       <c r="G136" t="n">
-        <v>-1163182.120329905</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5573,26 +5037,19 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>-1163192.120329905</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J137" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5614,26 +5071,19 @@
         <v>165232.1497</v>
       </c>
       <c r="G138" t="n">
-        <v>-997959.9706299047</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J138" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5655,26 +5105,19 @@
         <v>164695.2194</v>
       </c>
       <c r="G139" t="n">
-        <v>-833264.7512299046</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J139" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5696,24 +5139,19 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>-833274.7512299046</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5735,24 +5173,19 @@
         <v>8437.2474</v>
       </c>
       <c r="G141" t="n">
-        <v>-833274.7512299046</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5774,24 +5207,19 @@
         <v>15127.2509</v>
       </c>
       <c r="G142" t="n">
-        <v>-818147.5003299046</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5813,24 +5241,19 @@
         <v>225953.1906</v>
       </c>
       <c r="G143" t="n">
-        <v>-592194.3097299046</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5852,24 +5275,19 @@
         <v>1421.5574</v>
       </c>
       <c r="G144" t="n">
-        <v>-592194.3097299046</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5891,24 +5309,19 @@
         <v>35583.8808</v>
       </c>
       <c r="G145" t="n">
-        <v>-627778.1905299047</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5930,24 +5343,19 @@
         <v>40983.6065</v>
       </c>
       <c r="G146" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5969,24 +5377,19 @@
         <v>7883.1252</v>
       </c>
       <c r="G147" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6008,24 +5411,19 @@
         <v>50</v>
       </c>
       <c r="G148" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6047,24 +5445,19 @@
         <v>22</v>
       </c>
       <c r="G149" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6086,24 +5479,19 @@
         <v>2600</v>
       </c>
       <c r="G150" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6125,24 +5513,19 @@
         <v>10</v>
       </c>
       <c r="G151" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6164,24 +5547,19 @@
         <v>3361.3444</v>
       </c>
       <c r="G152" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6203,24 +5581,19 @@
         <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6242,24 +5615,19 @@
         <v>30000</v>
       </c>
       <c r="G154" t="n">
-        <v>-586794.5840299047</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6281,24 +5649,17 @@
         <v>45995.1533</v>
       </c>
       <c r="G155" t="n">
-        <v>-632789.7373299047</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6320,24 +5681,15 @@
         <v>241.9354</v>
       </c>
       <c r="G156" t="n">
-        <v>-632547.8019299047</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6359,24 +5711,15 @@
         <v>20</v>
       </c>
       <c r="G157" t="n">
-        <v>-632567.8019299047</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1.020423728813559</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6398,18 +5741,15 @@
         <v>174518.1842</v>
       </c>
       <c r="G158" t="n">
-        <v>-632567.8019299047</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6431,18 +5771,15 @@
         <v>11</v>
       </c>
       <c r="G159" t="n">
-        <v>-632556.8019299047</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6464,18 +5801,15 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>-632566.8019299047</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6497,18 +5831,15 @@
         <v>40890.395</v>
       </c>
       <c r="G161" t="n">
-        <v>-632566.8019299047</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6530,18 +5861,15 @@
         <v>6147.6229</v>
       </c>
       <c r="G162" t="n">
-        <v>-626419.1790299048</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6563,18 +5891,15 @@
         <v>91124.0831</v>
       </c>
       <c r="G163" t="n">
-        <v>-717543.2621299048</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6596,18 +5921,15 @@
         <v>810</v>
       </c>
       <c r="G164" t="n">
-        <v>-717543.2621299048</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6629,18 +5951,15 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-717553.2621299048</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6662,18 +5981,15 @@
         <v>63891.157</v>
       </c>
       <c r="G166" t="n">
-        <v>-653662.1051299048</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6695,18 +6011,15 @@
         <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>-653672.1051299048</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6728,18 +6041,15 @@
         <v>2783.6387</v>
       </c>
       <c r="G168" t="n">
-        <v>-650888.4664299048</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6761,18 +6071,15 @@
         <v>118</v>
       </c>
       <c r="G169" t="n">
-        <v>-650770.4664299048</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6794,18 +6101,15 @@
         <v>4658.5901</v>
       </c>
       <c r="G170" t="n">
-        <v>-650770.4664299048</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6827,18 +6131,15 @@
         <v>16393.4426</v>
       </c>
       <c r="G171" t="n">
-        <v>-650770.4664299048</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6860,18 +6161,15 @@
         <v>10</v>
       </c>
       <c r="G172" t="n">
-        <v>-650780.4664299048</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6893,18 +6191,15 @@
         <v>11</v>
       </c>
       <c r="G173" t="n">
-        <v>-650769.4664299048</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6926,18 +6221,15 @@
         <v>29440.4918</v>
       </c>
       <c r="G174" t="n">
-        <v>-680209.9582299048</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6959,18 +6251,15 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>-680219.9582299048</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6992,18 +6281,15 @@
         <v>11</v>
       </c>
       <c r="G176" t="n">
-        <v>-680208.9582299048</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7025,18 +6311,15 @@
         <v>49175.4019</v>
       </c>
       <c r="G177" t="n">
-        <v>-680208.9582299048</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7058,18 +6341,15 @@
         <v>3889.2804</v>
       </c>
       <c r="G178" t="n">
-        <v>-676319.6778299047</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7091,18 +6371,15 @@
         <v>23626.275</v>
       </c>
       <c r="G179" t="n">
-        <v>-676319.6778299047</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7124,18 +6401,15 @@
         <v>121224.7617</v>
       </c>
       <c r="G180" t="n">
-        <v>-676319.6778299047</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7157,18 +6431,15 @@
         <v>8064.516</v>
       </c>
       <c r="G181" t="n">
-        <v>-668255.1618299048</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
